--- a/TCEHY.xlsx
+++ b/TCEHY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50948567-0171-0645-A529-F561362CD80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728906DF-23F1-3040-A7CE-AF4A67BB5034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20000" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-65540" yWindow="-5940" windowWidth="28760" windowHeight="26320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
   <si>
     <t>Price</t>
   </si>
@@ -455,6 +455,24 @@
   </si>
   <si>
     <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>2020-09-31</t>
+  </si>
+  <si>
+    <t>S&amp;M y/y</t>
+  </si>
+  <si>
+    <t>G&amp;A y/y</t>
   </si>
 </sst>
 </file>
@@ -545,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,9 +650,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -663,9 +678,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -684,6 +696,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,13 +744,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>336062</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>336062</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -731,8 +767,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8064500" y="1663700"/>
-          <a:ext cx="0" cy="9067800"/>
+          <a:off x="8288216" y="1673469"/>
+          <a:ext cx="0" cy="9785839"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -763,14 +799,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>9769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -787,8 +823,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18884900" y="177800"/>
-          <a:ext cx="0" cy="8902700"/>
+          <a:off x="20574000" y="175846"/>
+          <a:ext cx="0" cy="8958385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1080,11 +1116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1094,7 +1130,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1106,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>56</v>
-      </c>
-      <c r="D2" s="61">
-        <v>43965</v>
+        <v>95.1</v>
+      </c>
+      <c r="D2" s="59">
+        <v>44236</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>37</v>
@@ -1127,11 +1163,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <f>'Reports RMB'!V20</f>
-        <v>9550</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>138</v>
+        <f>'Reports RMB'!U20</f>
+        <v>9603</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>25</v>
@@ -1145,7 +1181,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1153,9 +1189,9 @@
       </c>
       <c r="C4" s="11">
         <f>C3*C2</f>
-        <v>534800</v>
-      </c>
-      <c r="D4" s="62"/>
+        <v>913245.29999999993</v>
+      </c>
+      <c r="D4" s="60"/>
       <c r="E4" s="7" t="s">
         <v>38</v>
       </c>
@@ -1176,18 +1212,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <f>'Reports RMB'!V30/Main!C9</f>
-        <v>-437.6056338028169</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>89</v>
+        <f>'Reports RMB'!X30/C9</f>
+        <v>1257.6589595375722</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>140</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="16">
         <f>NPV(F4,J27:IR27)</f>
-        <v>5093181.2190281209</v>
+        <v>7984570.4755484033</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>94</v>
@@ -1203,20 +1239,20 @@
       </c>
       <c r="C6" s="11">
         <f>C4-C5</f>
-        <v>535237.60563380283</v>
-      </c>
-      <c r="D6" s="62"/>
+        <v>911987.6410404623</v>
+      </c>
+      <c r="D6" s="60"/>
       <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="17">
         <f>F5/C9+C5</f>
-        <v>716911.86183494667</v>
+        <v>1155097.3230561276</v>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="57" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1224,26 +1260,26 @@
       </c>
       <c r="C7" s="12">
         <f>C6/C3</f>
-        <v>56.045822579455795</v>
-      </c>
-      <c r="D7" s="62"/>
+        <v>94.969034785011175</v>
+      </c>
+      <c r="D7" s="60"/>
       <c r="E7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="18">
         <f>F6/C3</f>
-        <v>75.0693049041829</v>
+        <v>120.28504874061518</v>
       </c>
       <c r="G7" s="14">
         <f>F7/C2-1</f>
-        <v>0.34052330186040902</v>
+        <v>0.26482701094232586</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1251,10 +1287,10 @@
         <v>63</v>
       </c>
       <c r="C9" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="D9" s="61">
-        <v>43966</v>
+        <v>6.92</v>
+      </c>
+      <c r="D9" s="59">
+        <v>44236</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
@@ -1378,24 +1414,24 @@
         <v>199991</v>
       </c>
       <c r="J12" s="25">
-        <f>I12*1.15</f>
-        <v>229989.65</v>
+        <f>SUM('Reports RMB'!V3:Y3)</f>
+        <v>267848.8</v>
       </c>
       <c r="K12" s="25">
-        <f t="shared" ref="K12:N12" si="6">J12*1.15</f>
-        <v>264488.09749999997</v>
+        <f>J12*1.2</f>
+        <v>321418.56</v>
       </c>
       <c r="L12" s="25">
-        <f t="shared" si="6"/>
-        <v>304161.31212499994</v>
+        <f t="shared" ref="L12:N12" si="6">K12*1.2</f>
+        <v>385702.272</v>
       </c>
       <c r="M12" s="25">
         <f t="shared" si="6"/>
-        <v>349785.50894374988</v>
+        <v>462842.72639999999</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="6"/>
-        <v>402253.33528531232</v>
+        <v>555411.27168000001</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -1427,24 +1463,24 @@
         <v>101355</v>
       </c>
       <c r="J13" s="25">
-        <f>I13*1.2</f>
-        <v>121626</v>
+        <f>SUM('Reports RMB'!V4:Y4)</f>
+        <v>126992</v>
       </c>
       <c r="K13" s="25">
-        <f t="shared" ref="K13:N13" si="7">J13*1.2</f>
-        <v>145951.19999999998</v>
+        <f>J13*1.25</f>
+        <v>158740</v>
       </c>
       <c r="L13" s="25">
-        <f t="shared" si="7"/>
-        <v>175141.43999999997</v>
+        <f t="shared" ref="L13:N13" si="7">K13*1.25</f>
+        <v>198425</v>
       </c>
       <c r="M13" s="25">
         <f t="shared" si="7"/>
-        <v>210169.72799999997</v>
+        <v>248031.25</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="7"/>
-        <v>252203.67359999995</v>
+        <v>310039.0625</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -1491,24 +1527,24 @@
         <v>68377</v>
       </c>
       <c r="J14" s="25">
-        <f>I14*1.15</f>
-        <v>78633.549999999988</v>
+        <f>SUM('Reports RMB'!V5:Y5)</f>
+        <v>80874.75</v>
       </c>
       <c r="K14" s="25">
-        <f t="shared" ref="K14:N14" si="8">J14*1.15</f>
-        <v>90428.582499999975</v>
+        <f t="shared" ref="K14:N15" si="8">J14*1.15</f>
+        <v>93005.962499999994</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="8"/>
-        <v>103992.86987499996</v>
+        <v>106956.85687499998</v>
       </c>
       <c r="M14" s="25">
         <f t="shared" si="8"/>
-        <v>119591.80035624995</v>
+        <v>123000.38540624997</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="8"/>
-        <v>137530.57040968744</v>
+        <v>141450.44321718745</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -1558,24 +1594,24 @@
         <v>7566</v>
       </c>
       <c r="J15" s="25">
-        <f>I15*1.25</f>
-        <v>9457.5</v>
+        <f>SUM('Reports RMB'!V6:Y6)</f>
+        <v>5279.6</v>
       </c>
       <c r="K15" s="25">
-        <f t="shared" ref="K15:N15" si="9">J15*1.25</f>
-        <v>11821.875</v>
+        <f>J15*1.15</f>
+        <v>6071.54</v>
       </c>
       <c r="L15" s="25">
-        <f t="shared" si="9"/>
-        <v>14777.34375</v>
+        <f t="shared" si="8"/>
+        <v>6982.2709999999997</v>
       </c>
       <c r="M15" s="25">
-        <f t="shared" si="9"/>
-        <v>18471.6796875</v>
+        <f t="shared" si="8"/>
+        <v>8029.6116499999989</v>
       </c>
       <c r="N15" s="25">
-        <f t="shared" si="9"/>
-        <v>23089.599609375</v>
+        <f t="shared" si="8"/>
+        <v>9234.053397499998</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -1595,7 +1631,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="48"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1618,96 +1654,96 @@
         <v>8</v>
       </c>
       <c r="B17" s="28">
-        <f t="shared" ref="B17:J17" si="10">SUM(B12:B15)</f>
+        <f t="shared" ref="B17:J17" si="9">SUM(B12:B15)</f>
         <v>43893</v>
       </c>
       <c r="C17" s="28">
+        <f t="shared" si="9"/>
+        <v>60437</v>
+      </c>
+      <c r="D17" s="28">
+        <f t="shared" si="9"/>
+        <v>78922</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="9"/>
+        <v>102863</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="9"/>
+        <v>151938</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="9"/>
+        <v>237760</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="9"/>
+        <v>312694</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" si="9"/>
+        <v>377289</v>
+      </c>
+      <c r="J17" s="28">
+        <f>SUM(J12:J15)</f>
+        <v>480995.14999999997</v>
+      </c>
+      <c r="K17" s="48">
+        <f>SUM(K12:K15)</f>
+        <v>579236.0625</v>
+      </c>
+      <c r="L17" s="48">
+        <f t="shared" ref="K17:M17" si="10">SUM(L12:L15)</f>
+        <v>698066.39987499989</v>
+      </c>
+      <c r="M17" s="48">
         <f t="shared" si="10"/>
-        <v>60437</v>
-      </c>
-      <c r="D17" s="28">
-        <f t="shared" si="10"/>
-        <v>78922</v>
-      </c>
-      <c r="E17" s="28">
-        <f t="shared" si="10"/>
-        <v>102863</v>
-      </c>
-      <c r="F17" s="28">
-        <f t="shared" si="10"/>
-        <v>151938</v>
-      </c>
-      <c r="G17" s="28">
-        <f t="shared" si="10"/>
-        <v>237760</v>
-      </c>
-      <c r="H17" s="28">
-        <f t="shared" si="10"/>
-        <v>312694</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" si="10"/>
-        <v>377289</v>
-      </c>
-      <c r="J17" s="49">
-        <f t="shared" si="10"/>
-        <v>439706.7</v>
-      </c>
-      <c r="K17" s="49">
-        <f t="shared" ref="K17:M17" si="11">SUM(K12:K15)</f>
-        <v>512689.75499999995</v>
-      </c>
-      <c r="L17" s="49">
+        <v>841903.97345625004</v>
+      </c>
+      <c r="N17" s="48">
+        <f>SUM(N12:N15)</f>
+        <v>1016134.8307946874</v>
+      </c>
+      <c r="O17" s="48">
+        <f>N17*1.1</f>
+        <v>1117748.3138741562</v>
+      </c>
+      <c r="P17" s="48">
+        <f t="shared" ref="P17:S17" si="11">O17*1.1</f>
+        <v>1229523.145261572</v>
+      </c>
+      <c r="Q17" s="48">
         <f t="shared" si="11"/>
-        <v>598072.96574999986</v>
-      </c>
-      <c r="M17" s="49">
+        <v>1352475.4597877292</v>
+      </c>
+      <c r="R17" s="48">
         <f t="shared" si="11"/>
-        <v>698018.71698749973</v>
-      </c>
-      <c r="N17" s="49">
-        <f>SUM(N12:N15)</f>
-        <v>815077.17890437471</v>
-      </c>
-      <c r="O17" s="49">
-        <f>N17*1.05</f>
-        <v>855831.03784959344</v>
-      </c>
-      <c r="P17" s="49">
-        <f t="shared" ref="P17:X17" si="12">O17*1.05</f>
-        <v>898622.58974207321</v>
-      </c>
-      <c r="Q17" s="49">
+        <v>1487723.0057665023</v>
+      </c>
+      <c r="S17" s="48">
+        <f t="shared" si="11"/>
+        <v>1636495.3063431527</v>
+      </c>
+      <c r="T17" s="48">
+        <f t="shared" ref="P17:X17" si="12">S17*1.05</f>
+        <v>1718320.0716603103</v>
+      </c>
+      <c r="U17" s="48">
         <f t="shared" si="12"/>
-        <v>943553.71922917687</v>
-      </c>
-      <c r="R17" s="49">
+        <v>1804236.0752433259</v>
+      </c>
+      <c r="V17" s="48">
         <f t="shared" si="12"/>
-        <v>990731.40519063571</v>
-      </c>
-      <c r="S17" s="49">
+        <v>1894447.8790054922</v>
+      </c>
+      <c r="W17" s="48">
         <f t="shared" si="12"/>
-        <v>1040267.9754501675</v>
-      </c>
-      <c r="T17" s="49">
+        <v>1989170.2729557669</v>
+      </c>
+      <c r="X17" s="48">
         <f t="shared" si="12"/>
-        <v>1092281.374222676</v>
-      </c>
-      <c r="U17" s="49">
-        <f t="shared" si="12"/>
-        <v>1146895.4429338099</v>
-      </c>
-      <c r="V17" s="49">
-        <f t="shared" si="12"/>
-        <v>1204240.2150805006</v>
-      </c>
-      <c r="W17" s="49">
-        <f t="shared" si="12"/>
-        <v>1264452.2258345257</v>
-      </c>
-      <c r="X17" s="49">
-        <f t="shared" si="12"/>
-        <v>1327674.837126252</v>
+        <v>2088628.7866035553</v>
       </c>
     </row>
     <row r="18" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1743,65 +1779,65 @@
         <f>SUM('Reports RMB'!R9:U9)</f>
         <v>209756</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="46">
         <f>J17-J19</f>
-        <v>244457.48104291403</v>
-      </c>
-      <c r="K18" s="47">
+        <v>267412.03343696741</v>
+      </c>
+      <c r="K18" s="46">
         <f t="shared" ref="K18:S18" si="13">K17-K19</f>
-        <v>285032.83225797722</v>
-      </c>
-      <c r="L18" s="47">
+        <v>322029.6365007991</v>
+      </c>
+      <c r="L18" s="46">
         <f t="shared" si="13"/>
-        <v>332502.12172593677</v>
-      </c>
-      <c r="M18" s="47">
+        <v>388094.04931545968</v>
+      </c>
+      <c r="M18" s="46">
         <f t="shared" si="13"/>
-        <v>388067.53973858227</v>
-      </c>
-      <c r="N18" s="47">
+        <v>468061.37962222373</v>
+      </c>
+      <c r="N18" s="46">
         <f t="shared" si="13"/>
-        <v>453146.8681521751</v>
-      </c>
-      <c r="O18" s="47">
+        <v>564926.03168438631</v>
+      </c>
+      <c r="O18" s="46">
         <f t="shared" si="13"/>
-        <v>475804.21155978384</v>
-      </c>
-      <c r="P18" s="47">
+        <v>621418.63485282497</v>
+      </c>
+      <c r="P18" s="46">
         <f t="shared" si="13"/>
-        <v>499594.42213777307</v>
-      </c>
-      <c r="Q18" s="47">
+        <v>683560.4983381076</v>
+      </c>
+      <c r="Q18" s="46">
         <f t="shared" si="13"/>
-        <v>524574.14324466174</v>
-      </c>
-      <c r="R18" s="47">
+        <v>751916.54817191837</v>
+      </c>
+      <c r="R18" s="46">
         <f t="shared" si="13"/>
-        <v>550802.85040689481</v>
-      </c>
-      <c r="S18" s="47">
+        <v>827108.20298911037</v>
+      </c>
+      <c r="S18" s="46">
         <f t="shared" si="13"/>
-        <v>578342.99292723951</v>
-      </c>
-      <c r="T18" s="47">
+        <v>909819.02328802145</v>
+      </c>
+      <c r="T18" s="46">
         <f t="shared" ref="T18:X18" si="14">T17-T19</f>
-        <v>607260.14257360157</v>
-      </c>
-      <c r="U18" s="47">
+        <v>955309.97445242247</v>
+      </c>
+      <c r="U18" s="46">
         <f t="shared" si="14"/>
-        <v>637623.14970228169</v>
-      </c>
-      <c r="V18" s="47">
+        <v>1003075.4731750437</v>
+      </c>
+      <c r="V18" s="46">
         <f t="shared" si="14"/>
-        <v>669504.30718739587</v>
-      </c>
-      <c r="W18" s="47">
+        <v>1053229.2468337957</v>
+      </c>
+      <c r="W18" s="46">
         <f t="shared" si="14"/>
-        <v>702979.52254676563</v>
-      </c>
-      <c r="X18" s="47">
+        <v>1105890.7091754857</v>
+      </c>
+      <c r="X18" s="46">
         <f t="shared" si="14"/>
-        <v>738128.49867410387</v>
+        <v>1161185.24463426</v>
       </c>
     </row>
     <row r="19" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1840,65 +1876,65 @@
         <f t="shared" si="17"/>
         <v>167533</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="46">
         <f t="shared" ref="J19:X19" si="18">J17*I36</f>
-        <v>195249.21895708598</v>
-      </c>
-      <c r="K19" s="47">
+        <v>213583.11656303258</v>
+      </c>
+      <c r="K19" s="46">
         <f t="shared" si="18"/>
-        <v>227656.92274202273</v>
-      </c>
-      <c r="L19" s="47">
+        <v>257206.4259992009</v>
+      </c>
+      <c r="L19" s="46">
         <f t="shared" si="18"/>
-        <v>265570.84402406309</v>
-      </c>
-      <c r="M19" s="47">
+        <v>309972.35055954021</v>
+      </c>
+      <c r="M19" s="46">
         <f t="shared" si="18"/>
-        <v>309951.17724891746</v>
-      </c>
-      <c r="N19" s="47">
+        <v>373842.59383402631</v>
+      </c>
+      <c r="N19" s="46">
         <f t="shared" si="18"/>
-        <v>361930.31075219961</v>
-      </c>
-      <c r="O19" s="47">
+        <v>451208.79911030107</v>
+      </c>
+      <c r="O19" s="46">
         <f t="shared" si="18"/>
-        <v>380026.8262898096</v>
-      </c>
-      <c r="P19" s="47">
+        <v>496329.67902133119</v>
+      </c>
+      <c r="P19" s="46">
         <f t="shared" si="18"/>
-        <v>399028.16760430014</v>
-      </c>
-      <c r="Q19" s="47">
+        <v>545962.64692346437</v>
+      </c>
+      <c r="Q19" s="46">
         <f t="shared" si="18"/>
-        <v>418979.57598451513</v>
-      </c>
-      <c r="R19" s="47">
+        <v>600558.91161581082</v>
+      </c>
+      <c r="R19" s="46">
         <f t="shared" si="18"/>
-        <v>439928.5547837409</v>
-      </c>
-      <c r="S19" s="47">
+        <v>660614.80277739197</v>
+      </c>
+      <c r="S19" s="46">
         <f t="shared" si="18"/>
-        <v>461924.98252292798</v>
-      </c>
-      <c r="T19" s="47">
+        <v>726676.28305513121</v>
+      </c>
+      <c r="T19" s="46">
         <f t="shared" si="18"/>
-        <v>485021.23164907441</v>
-      </c>
-      <c r="U19" s="47">
+        <v>763010.0972078878</v>
+      </c>
+      <c r="U19" s="46">
         <f t="shared" si="18"/>
-        <v>509272.29323152819</v>
-      </c>
-      <c r="V19" s="47">
+        <v>801160.6020682822</v>
+      </c>
+      <c r="V19" s="46">
         <f t="shared" si="18"/>
-        <v>534735.90789310471</v>
-      </c>
-      <c r="W19" s="47">
+        <v>841218.6321716964</v>
+      </c>
+      <c r="W19" s="46">
         <f t="shared" si="18"/>
-        <v>561472.70328776003</v>
-      </c>
-      <c r="X19" s="47">
+        <v>883279.56378028134</v>
+      </c>
+      <c r="X19" s="46">
         <f t="shared" si="18"/>
-        <v>589546.33845214813</v>
+        <v>927443.54196929536</v>
       </c>
     </row>
     <row r="20" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1934,65 +1970,65 @@
         <f>SUM('Reports RMB'!R11:U11)</f>
         <v>21396</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <f>I20*1.1</f>
         <v>23535.600000000002</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="46">
         <f t="shared" ref="K20:N20" si="19">J20*1.1</f>
         <v>25889.160000000003</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <f t="shared" si="19"/>
         <v>28478.076000000005</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <f t="shared" si="19"/>
         <v>31325.883600000008</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="46">
         <f t="shared" si="19"/>
         <v>34458.47196000001</v>
       </c>
-      <c r="O20" s="47">
-        <f t="shared" ref="O20" si="20">N20*1.05</f>
-        <v>36181.395558000011</v>
-      </c>
-      <c r="P20" s="47">
-        <f t="shared" ref="P20" si="21">O20*1.05</f>
-        <v>37990.465335900015</v>
-      </c>
-      <c r="Q20" s="47">
-        <f t="shared" ref="Q20" si="22">P20*1.05</f>
-        <v>39889.988602695019</v>
-      </c>
-      <c r="R20" s="47">
-        <f t="shared" ref="R20" si="23">Q20*1.05</f>
-        <v>41884.488032829773</v>
-      </c>
-      <c r="S20" s="47">
-        <f t="shared" ref="S20" si="24">R20*1.05</f>
-        <v>43978.712434471265</v>
-      </c>
-      <c r="T20" s="47">
-        <f t="shared" ref="T20" si="25">S20*1.05</f>
-        <v>46177.648056194826</v>
-      </c>
-      <c r="U20" s="47">
-        <f t="shared" ref="U20" si="26">T20*1.05</f>
-        <v>48486.530459004571</v>
-      </c>
-      <c r="V20" s="47">
-        <f t="shared" ref="V20" si="27">U20*1.05</f>
-        <v>50910.856981954799</v>
-      </c>
-      <c r="W20" s="47">
-        <f t="shared" ref="W20" si="28">V20*1.05</f>
-        <v>53456.399831052542</v>
-      </c>
-      <c r="X20" s="47">
-        <f t="shared" ref="X20" si="29">W20*1.05</f>
-        <v>56129.21982260517</v>
+      <c r="O20" s="46">
+        <f>N20*1.1</f>
+        <v>37904.319156000012</v>
+      </c>
+      <c r="P20" s="46">
+        <f t="shared" ref="P20:S20" si="20">O20*1.1</f>
+        <v>41694.751071600018</v>
+      </c>
+      <c r="Q20" s="46">
+        <f t="shared" si="20"/>
+        <v>45864.226178760022</v>
+      </c>
+      <c r="R20" s="46">
+        <f t="shared" si="20"/>
+        <v>50450.648796636029</v>
+      </c>
+      <c r="S20" s="46">
+        <f t="shared" si="20"/>
+        <v>55495.713676299638</v>
+      </c>
+      <c r="T20" s="46">
+        <f t="shared" ref="T20" si="21">S20*1.05</f>
+        <v>58270.49936011462</v>
+      </c>
+      <c r="U20" s="46">
+        <f t="shared" ref="U20" si="22">T20*1.05</f>
+        <v>61184.024328120351</v>
+      </c>
+      <c r="V20" s="46">
+        <f t="shared" ref="V20" si="23">U20*1.05</f>
+        <v>64243.225544526373</v>
+      </c>
+      <c r="W20" s="46">
+        <f t="shared" ref="W20" si="24">V20*1.05</f>
+        <v>67455.386821752691</v>
+      </c>
+      <c r="X20" s="46">
+        <f t="shared" ref="X20" si="25">W20*1.05</f>
+        <v>70828.156162840329</v>
       </c>
     </row>
     <row r="21" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2028,65 +2064,65 @@
         <f>SUM('Reports RMB'!R12:U12)</f>
         <v>53446</v>
       </c>
-      <c r="J21" s="47">
-        <f>I21*1.1</f>
-        <v>58790.600000000006</v>
-      </c>
-      <c r="K21" s="47">
-        <f t="shared" ref="K21:N21" si="30">J21*1.1</f>
-        <v>64669.660000000011</v>
-      </c>
-      <c r="L21" s="47">
-        <f t="shared" si="30"/>
-        <v>71136.626000000018</v>
-      </c>
-      <c r="M21" s="47">
-        <f t="shared" si="30"/>
-        <v>78250.288600000029</v>
-      </c>
-      <c r="N21" s="47">
-        <f t="shared" si="30"/>
-        <v>86075.317460000035</v>
-      </c>
-      <c r="O21" s="47">
-        <f t="shared" ref="O21" si="31">N21*0.98</f>
-        <v>84353.81111080003</v>
-      </c>
-      <c r="P21" s="47">
-        <f t="shared" ref="P21" si="32">O21*0.98</f>
-        <v>82666.734888584033</v>
-      </c>
-      <c r="Q21" s="47">
-        <f t="shared" ref="Q21" si="33">P21*0.98</f>
-        <v>81013.400190812346</v>
-      </c>
-      <c r="R21" s="47">
-        <f t="shared" ref="R21" si="34">Q21*0.98</f>
-        <v>79393.132186996096</v>
-      </c>
-      <c r="S21" s="47">
-        <f t="shared" ref="S21" si="35">R21*0.98</f>
-        <v>77805.269543256174</v>
-      </c>
-      <c r="T21" s="47">
-        <f t="shared" ref="T21" si="36">S21*0.98</f>
-        <v>76249.164152391051</v>
-      </c>
-      <c r="U21" s="47">
-        <f t="shared" ref="U21" si="37">T21*0.98</f>
-        <v>74724.180869343225</v>
-      </c>
-      <c r="V21" s="47">
-        <f t="shared" ref="V21" si="38">U21*0.98</f>
-        <v>73229.697251956357</v>
-      </c>
-      <c r="W21" s="47">
-        <f t="shared" ref="W21" si="39">V21*0.98</f>
-        <v>71765.103306917226</v>
-      </c>
-      <c r="X21" s="47">
-        <f t="shared" ref="X21" si="40">W21*0.98</f>
-        <v>70329.801240778877</v>
+      <c r="J21" s="46">
+        <f>I21*1.15</f>
+        <v>61462.899999999994</v>
+      </c>
+      <c r="K21" s="46">
+        <f t="shared" ref="K21:N21" si="26">J21*1.15</f>
+        <v>70682.334999999992</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="26"/>
+        <v>81284.68524999998</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="26"/>
+        <v>93477.388037499972</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="26"/>
+        <v>107498.99624312496</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" ref="O21" si="27">N21*0.98</f>
+        <v>105349.01631826245</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" ref="P21" si="28">O21*0.98</f>
+        <v>103242.0359918972</v>
+      </c>
+      <c r="Q21" s="46">
+        <f t="shared" ref="Q21" si="29">P21*0.98</f>
+        <v>101177.19527205925</v>
+      </c>
+      <c r="R21" s="46">
+        <f t="shared" ref="R21" si="30">Q21*0.98</f>
+        <v>99153.651366618069</v>
+      </c>
+      <c r="S21" s="46">
+        <f t="shared" ref="S21" si="31">R21*0.98</f>
+        <v>97170.578339285712</v>
+      </c>
+      <c r="T21" s="46">
+        <f t="shared" ref="T21" si="32">S21*0.98</f>
+        <v>95227.166772500001</v>
+      </c>
+      <c r="U21" s="46">
+        <f t="shared" ref="U21" si="33">T21*0.98</f>
+        <v>93322.623437050002</v>
+      </c>
+      <c r="V21" s="46">
+        <f t="shared" ref="V21" si="34">U21*0.98</f>
+        <v>91456.170968309001</v>
+      </c>
+      <c r="W21" s="46">
+        <f t="shared" ref="W21" si="35">V21*0.98</f>
+        <v>89627.047548942821</v>
+      </c>
+      <c r="X21" s="46">
+        <f t="shared" ref="X21" si="36">W21*0.98</f>
+        <v>87834.506597963962</v>
       </c>
     </row>
     <row r="22" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2102,88 +2138,88 @@
         <v>15683</v>
       </c>
       <c r="D22" s="29">
-        <f t="shared" ref="D22" si="41">SUM(D20:D21)</f>
+        <f t="shared" ref="D22" si="37">SUM(D20:D21)</f>
         <v>21952</v>
       </c>
       <c r="E22" s="29">
-        <f t="shared" ref="E22:I22" si="42">SUM(E20:E21)</f>
+        <f t="shared" ref="E22:I22" si="38">SUM(E20:E21)</f>
         <v>24818</v>
       </c>
       <c r="F22" s="29">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>34595</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>50703</v>
       </c>
       <c r="H22" s="29">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>65755</v>
       </c>
       <c r="I22" s="29">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>74842</v>
       </c>
-      <c r="J22" s="47">
-        <f t="shared" ref="J22:S22" si="43">SUM(J20:J21)</f>
-        <v>82326.200000000012</v>
-      </c>
-      <c r="K22" s="47">
-        <f t="shared" si="43"/>
-        <v>90558.82</v>
-      </c>
-      <c r="L22" s="47">
-        <f t="shared" si="43"/>
-        <v>99614.702000000019</v>
-      </c>
-      <c r="M22" s="47">
-        <f t="shared" si="43"/>
-        <v>109576.17220000003</v>
-      </c>
-      <c r="N22" s="47">
-        <f t="shared" si="43"/>
-        <v>120533.78942000004</v>
-      </c>
-      <c r="O22" s="47">
-        <f t="shared" si="43"/>
-        <v>120535.20666880003</v>
-      </c>
-      <c r="P22" s="47">
-        <f t="shared" si="43"/>
-        <v>120657.20022448406</v>
-      </c>
-      <c r="Q22" s="47">
-        <f t="shared" si="43"/>
-        <v>120903.38879350736</v>
-      </c>
-      <c r="R22" s="47">
-        <f t="shared" si="43"/>
-        <v>121277.62021982587</v>
-      </c>
-      <c r="S22" s="47">
-        <f t="shared" si="43"/>
-        <v>121783.98197772744</v>
-      </c>
-      <c r="T22" s="47">
-        <f t="shared" ref="T22:X22" si="44">SUM(T20:T21)</f>
-        <v>122426.81220858588</v>
-      </c>
-      <c r="U22" s="47">
-        <f t="shared" si="44"/>
-        <v>123210.7113283478</v>
-      </c>
-      <c r="V22" s="47">
-        <f t="shared" si="44"/>
-        <v>124140.55423391116</v>
-      </c>
-      <c r="W22" s="47">
-        <f t="shared" si="44"/>
-        <v>125221.50313796976</v>
-      </c>
-      <c r="X22" s="47">
-        <f t="shared" si="44"/>
-        <v>126459.02106338405</v>
+      <c r="J22" s="46">
+        <f t="shared" ref="J22:S22" si="39">SUM(J20:J21)</f>
+        <v>84998.5</v>
+      </c>
+      <c r="K22" s="46">
+        <f t="shared" si="39"/>
+        <v>96571.494999999995</v>
+      </c>
+      <c r="L22" s="46">
+        <f t="shared" si="39"/>
+        <v>109762.76124999998</v>
+      </c>
+      <c r="M22" s="46">
+        <f t="shared" si="39"/>
+        <v>124803.27163749997</v>
+      </c>
+      <c r="N22" s="46">
+        <f t="shared" si="39"/>
+        <v>141957.46820312497</v>
+      </c>
+      <c r="O22" s="46">
+        <f t="shared" si="39"/>
+        <v>143253.33547426248</v>
+      </c>
+      <c r="P22" s="46">
+        <f t="shared" si="39"/>
+        <v>144936.78706349721</v>
+      </c>
+      <c r="Q22" s="46">
+        <f t="shared" si="39"/>
+        <v>147041.42145081927</v>
+      </c>
+      <c r="R22" s="46">
+        <f t="shared" si="39"/>
+        <v>149604.30016325408</v>
+      </c>
+      <c r="S22" s="46">
+        <f t="shared" si="39"/>
+        <v>152666.29201558535</v>
+      </c>
+      <c r="T22" s="46">
+        <f t="shared" ref="T22:X22" si="40">SUM(T20:T21)</f>
+        <v>153497.66613261463</v>
+      </c>
+      <c r="U22" s="46">
+        <f t="shared" si="40"/>
+        <v>154506.64776517035</v>
+      </c>
+      <c r="V22" s="46">
+        <f t="shared" si="40"/>
+        <v>155699.39651283537</v>
+      </c>
+      <c r="W22" s="46">
+        <f t="shared" si="40"/>
+        <v>157082.4343706955</v>
+      </c>
+      <c r="X22" s="46">
+        <f t="shared" si="40"/>
+        <v>158662.66276080429</v>
       </c>
     </row>
     <row r="23" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2191,96 +2227,96 @@
         <v>16</v>
       </c>
       <c r="B23" s="29">
-        <f t="shared" ref="B23" si="45">B19-B22</f>
+        <f t="shared" ref="B23" si="41">B19-B22</f>
         <v>14928</v>
       </c>
       <c r="C23" s="29">
-        <f t="shared" ref="C23:D23" si="46">C19-C22</f>
+        <f t="shared" ref="C23:D23" si="42">C19-C22</f>
         <v>16976</v>
       </c>
       <c r="D23" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>26097</v>
       </c>
       <c r="E23" s="29">
-        <f t="shared" ref="E23:I23" si="47">E19-E22</f>
+        <f t="shared" ref="E23:I23" si="43">E19-E22</f>
         <v>36414</v>
       </c>
       <c r="F23" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>49904</v>
       </c>
       <c r="G23" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>66222</v>
       </c>
       <c r="H23" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>76365</v>
       </c>
       <c r="I23" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>92691</v>
       </c>
-      <c r="J23" s="47">
-        <f t="shared" ref="J23:S23" si="48">J19-J22</f>
-        <v>112923.01895708597</v>
-      </c>
-      <c r="K23" s="47">
-        <f t="shared" si="48"/>
-        <v>137098.10274202272</v>
-      </c>
-      <c r="L23" s="47">
-        <f t="shared" si="48"/>
-        <v>165956.14202406307</v>
-      </c>
-      <c r="M23" s="47">
-        <f t="shared" si="48"/>
-        <v>200375.00504891743</v>
-      </c>
-      <c r="N23" s="47">
-        <f t="shared" si="48"/>
-        <v>241396.52133219957</v>
-      </c>
-      <c r="O23" s="47">
-        <f t="shared" si="48"/>
-        <v>259491.61962100957</v>
-      </c>
-      <c r="P23" s="47">
-        <f t="shared" si="48"/>
-        <v>278370.96737981611</v>
-      </c>
-      <c r="Q23" s="47">
-        <f t="shared" si="48"/>
-        <v>298076.18719100778</v>
-      </c>
-      <c r="R23" s="47">
-        <f t="shared" si="48"/>
-        <v>318650.93456391501</v>
-      </c>
-      <c r="S23" s="47">
-        <f t="shared" si="48"/>
-        <v>340141.00054520054</v>
-      </c>
-      <c r="T23" s="47">
-        <f t="shared" ref="T23:X23" si="49">T19-T22</f>
-        <v>362594.41944048856</v>
-      </c>
-      <c r="U23" s="47">
-        <f t="shared" si="49"/>
-        <v>386061.5819031804</v>
-      </c>
-      <c r="V23" s="47">
-        <f t="shared" si="49"/>
-        <v>410595.35365919356</v>
-      </c>
-      <c r="W23" s="47">
-        <f t="shared" si="49"/>
-        <v>436251.20014979027</v>
-      </c>
-      <c r="X23" s="47">
-        <f t="shared" si="49"/>
-        <v>463087.31738876412</v>
+      <c r="J23" s="46">
+        <f t="shared" ref="J23:S23" si="44">J19-J22</f>
+        <v>128584.61656303258</v>
+      </c>
+      <c r="K23" s="46">
+        <f t="shared" si="44"/>
+        <v>160634.93099920091</v>
+      </c>
+      <c r="L23" s="46">
+        <f t="shared" si="44"/>
+        <v>200209.58930954023</v>
+      </c>
+      <c r="M23" s="46">
+        <f t="shared" si="44"/>
+        <v>249039.32219652634</v>
+      </c>
+      <c r="N23" s="46">
+        <f t="shared" si="44"/>
+        <v>309251.33090717613</v>
+      </c>
+      <c r="O23" s="46">
+        <f t="shared" si="44"/>
+        <v>353076.34354706871</v>
+      </c>
+      <c r="P23" s="46">
+        <f t="shared" si="44"/>
+        <v>401025.85985996714</v>
+      </c>
+      <c r="Q23" s="46">
+        <f t="shared" si="44"/>
+        <v>453517.49016499158</v>
+      </c>
+      <c r="R23" s="46">
+        <f t="shared" si="44"/>
+        <v>511010.50261413789</v>
+      </c>
+      <c r="S23" s="46">
+        <f t="shared" si="44"/>
+        <v>574009.99103954586</v>
+      </c>
+      <c r="T23" s="46">
+        <f t="shared" ref="T23:X23" si="45">T19-T22</f>
+        <v>609512.4310752732</v>
+      </c>
+      <c r="U23" s="46">
+        <f t="shared" si="45"/>
+        <v>646653.95430311188</v>
+      </c>
+      <c r="V23" s="46">
+        <f t="shared" si="45"/>
+        <v>685519.235658861</v>
+      </c>
+      <c r="W23" s="46">
+        <f t="shared" si="45"/>
+        <v>726197.12940958585</v>
+      </c>
+      <c r="X23" s="46">
+        <f t="shared" si="45"/>
+        <v>768780.87920849107</v>
       </c>
     </row>
     <row r="24" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2319,65 +2355,65 @@
         <f>SUM('Reports RMB'!R15:U15)</f>
         <v>16709</v>
       </c>
-      <c r="J24" s="47">
+      <c r="J24" s="46">
         <f>I40*$F$3</f>
         <v>-252.34</v>
       </c>
-      <c r="K24" s="47">
-        <f t="shared" ref="K24:X24" si="50">J40*$F$3</f>
-        <v>1663.0615422704616</v>
-      </c>
-      <c r="L24" s="47">
-        <f t="shared" si="50"/>
-        <v>4022.0013351034454</v>
-      </c>
-      <c r="M24" s="47">
-        <f t="shared" si="50"/>
-        <v>6911.6297722092759</v>
-      </c>
-      <c r="N24" s="47">
-        <f t="shared" si="50"/>
-        <v>10435.502564168431</v>
-      </c>
-      <c r="O24" s="47">
-        <f t="shared" si="50"/>
-        <v>14716.646970406688</v>
-      </c>
-      <c r="P24" s="47">
-        <f t="shared" si="50"/>
-        <v>19378.187502460765</v>
-      </c>
-      <c r="Q24" s="47">
-        <f t="shared" si="50"/>
-        <v>24439.92313545947</v>
-      </c>
-      <c r="R24" s="47">
-        <f t="shared" si="50"/>
-        <v>29922.697011009412</v>
-      </c>
-      <c r="S24" s="47">
-        <f t="shared" si="50"/>
-        <v>35848.448747783128</v>
-      </c>
-      <c r="T24" s="47">
-        <f t="shared" si="50"/>
-        <v>42240.269385763851</v>
-      </c>
-      <c r="U24" s="47">
-        <f t="shared" si="50"/>
-        <v>49122.459095810147</v>
-      </c>
-      <c r="V24" s="47">
-        <f t="shared" si="50"/>
-        <v>56520.587792792991</v>
-      </c>
-      <c r="W24" s="47">
-        <f t="shared" si="50"/>
-        <v>64461.558797476762</v>
-      </c>
-      <c r="X24" s="47">
-        <f t="shared" si="50"/>
-        <v>72973.675699580301</v>
+      <c r="K24" s="46">
+        <f t="shared" ref="K24:X24" si="46">J40*$F$3</f>
+        <v>1929.3087015715541</v>
+      </c>
+      <c r="L24" s="46">
+        <f t="shared" si="46"/>
+        <v>4692.9007764846856</v>
+      </c>
+      <c r="M24" s="46">
+        <f t="shared" si="46"/>
+        <v>8176.2431079471089</v>
+      </c>
+      <c r="N24" s="46">
+        <f t="shared" si="46"/>
+        <v>12548.907718123159</v>
+      </c>
+      <c r="O24" s="46">
+        <f t="shared" si="46"/>
+        <v>18019.511774753246</v>
+      </c>
+      <c r="P24" s="46">
+        <f t="shared" si="46"/>
+        <v>24328.141315224217</v>
+      </c>
+      <c r="Q24" s="46">
+        <f t="shared" si="46"/>
+        <v>31559.159335202472</v>
+      </c>
+      <c r="R24" s="46">
+        <f t="shared" si="46"/>
+        <v>39805.462376705771</v>
+      </c>
+      <c r="S24" s="46">
+        <f t="shared" si="46"/>
+        <v>49169.333781550115</v>
+      </c>
+      <c r="T24" s="46">
+        <f t="shared" si="46"/>
+        <v>59763.382303508748</v>
+      </c>
+      <c r="U24" s="46">
+        <f t="shared" si="46"/>
+        <v>71141.071130948039</v>
+      </c>
+      <c r="V24" s="46">
+        <f t="shared" si="46"/>
+        <v>83343.586563327059</v>
+      </c>
+      <c r="W24" s="46">
+        <f t="shared" si="46"/>
+        <v>96414.254541104252</v>
+      </c>
+      <c r="X24" s="46">
+        <f t="shared" si="46"/>
+        <v>110398.64806826599</v>
       </c>
     </row>
     <row r="25" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2385,96 +2421,96 @@
         <v>18</v>
       </c>
       <c r="B25" s="29">
-        <f t="shared" ref="B25" si="51">B23+B24</f>
+        <f t="shared" ref="B25" si="47">B23+B24</f>
         <v>15052</v>
       </c>
       <c r="C25" s="29">
-        <f t="shared" ref="C25:D25" si="52">C23+C24</f>
+        <f t="shared" ref="C25:D25" si="48">C23+C24</f>
         <v>19281</v>
       </c>
       <c r="D25" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>29003</v>
       </c>
       <c r="E25" s="29">
-        <f t="shared" ref="E25:I25" si="53">E23+E24</f>
+        <f t="shared" ref="E25:I25" si="49">E23+E24</f>
         <v>36216</v>
       </c>
       <c r="F25" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>51640</v>
       </c>
       <c r="G25" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>88182</v>
       </c>
       <c r="H25" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>94466</v>
       </c>
       <c r="I25" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>109400</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="46">
         <f>J23+J24</f>
-        <v>112670.67895708597</v>
-      </c>
-      <c r="K25" s="47">
-        <f t="shared" ref="K25:S25" si="54">K23+K24</f>
-        <v>138761.16428429319</v>
-      </c>
-      <c r="L25" s="47">
-        <f t="shared" si="54"/>
-        <v>169978.14335916651</v>
-      </c>
-      <c r="M25" s="47">
-        <f t="shared" si="54"/>
-        <v>207286.6348211267</v>
-      </c>
-      <c r="N25" s="47">
-        <f t="shared" si="54"/>
-        <v>251832.02389636799</v>
-      </c>
-      <c r="O25" s="47">
-        <f t="shared" si="54"/>
-        <v>274208.26659141626</v>
-      </c>
-      <c r="P25" s="47">
-        <f t="shared" si="54"/>
-        <v>297749.1548822769</v>
-      </c>
-      <c r="Q25" s="47">
-        <f t="shared" si="54"/>
-        <v>322516.11032646726</v>
-      </c>
-      <c r="R25" s="47">
-        <f t="shared" si="54"/>
-        <v>348573.63157492445</v>
-      </c>
-      <c r="S25" s="47">
-        <f t="shared" si="54"/>
-        <v>375989.44929298369</v>
-      </c>
-      <c r="T25" s="47">
-        <f t="shared" ref="T25:X25" si="55">T23+T24</f>
-        <v>404834.68882625242</v>
-      </c>
-      <c r="U25" s="47">
-        <f t="shared" si="55"/>
-        <v>435184.04099899053</v>
-      </c>
-      <c r="V25" s="47">
-        <f t="shared" si="55"/>
-        <v>467115.94145198655</v>
-      </c>
-      <c r="W25" s="47">
-        <f t="shared" si="55"/>
-        <v>500712.75894726702</v>
-      </c>
-      <c r="X25" s="47">
-        <f t="shared" si="55"/>
-        <v>536060.99308834446</v>
+        <v>128332.27656303259</v>
+      </c>
+      <c r="K25" s="46">
+        <f t="shared" ref="K25:S25" si="50">K23+K24</f>
+        <v>162564.23970077245</v>
+      </c>
+      <c r="L25" s="46">
+        <f t="shared" si="50"/>
+        <v>204902.49008602492</v>
+      </c>
+      <c r="M25" s="46">
+        <f t="shared" si="50"/>
+        <v>257215.56530447345</v>
+      </c>
+      <c r="N25" s="46">
+        <f t="shared" si="50"/>
+        <v>321800.2386252993</v>
+      </c>
+      <c r="O25" s="46">
+        <f t="shared" si="50"/>
+        <v>371095.85532182193</v>
+      </c>
+      <c r="P25" s="46">
+        <f t="shared" si="50"/>
+        <v>425354.00117519137</v>
+      </c>
+      <c r="Q25" s="46">
+        <f t="shared" si="50"/>
+        <v>485076.64950019406</v>
+      </c>
+      <c r="R25" s="46">
+        <f t="shared" si="50"/>
+        <v>550815.96499084367</v>
+      </c>
+      <c r="S25" s="46">
+        <f t="shared" si="50"/>
+        <v>623179.32482109591</v>
+      </c>
+      <c r="T25" s="46">
+        <f t="shared" ref="T25:X25" si="51">T23+T24</f>
+        <v>669275.8133787819</v>
+      </c>
+      <c r="U25" s="46">
+        <f t="shared" si="51"/>
+        <v>717795.02543405991</v>
+      </c>
+      <c r="V25" s="46">
+        <f t="shared" si="51"/>
+        <v>768862.82222218812</v>
+      </c>
+      <c r="W25" s="46">
+        <f t="shared" si="51"/>
+        <v>822611.38395069004</v>
+      </c>
+      <c r="X25" s="46">
+        <f t="shared" si="51"/>
+        <v>879179.52727675706</v>
       </c>
     </row>
     <row r="26" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2510,65 +2546,65 @@
         <f>SUM('Reports RMB'!R17:U17)</f>
         <v>13512</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="46">
         <f>J25*0.15</f>
-        <v>16900.601843562894</v>
-      </c>
-      <c r="K26" s="47">
-        <f t="shared" ref="K26:X26" si="56">K25*0.15</f>
-        <v>20814.174642643979</v>
-      </c>
-      <c r="L26" s="47">
-        <f t="shared" si="56"/>
-        <v>25496.721503874975</v>
-      </c>
-      <c r="M26" s="47">
-        <f t="shared" si="56"/>
-        <v>31092.995223169004</v>
-      </c>
-      <c r="N26" s="47">
-        <f t="shared" si="56"/>
-        <v>37774.8035844552</v>
-      </c>
-      <c r="O26" s="47">
-        <f t="shared" si="56"/>
-        <v>41131.239988712441</v>
-      </c>
-      <c r="P26" s="47">
-        <f t="shared" si="56"/>
-        <v>44662.373232341532</v>
-      </c>
-      <c r="Q26" s="47">
-        <f t="shared" si="56"/>
-        <v>48377.41654897009</v>
-      </c>
-      <c r="R26" s="47">
-        <f t="shared" si="56"/>
-        <v>52286.044736238669</v>
-      </c>
-      <c r="S26" s="47">
-        <f t="shared" si="56"/>
-        <v>56398.417393947551</v>
-      </c>
-      <c r="T26" s="47">
-        <f t="shared" si="56"/>
-        <v>60725.203323937858</v>
-      </c>
-      <c r="U26" s="47">
-        <f t="shared" si="56"/>
-        <v>65277.60614984858</v>
-      </c>
-      <c r="V26" s="47">
-        <f t="shared" si="56"/>
-        <v>70067.39121779798</v>
-      </c>
-      <c r="W26" s="47">
-        <f t="shared" si="56"/>
-        <v>75106.913842090056</v>
-      </c>
-      <c r="X26" s="47">
-        <f t="shared" si="56"/>
-        <v>80409.14896325166</v>
+        <v>19249.841484454886</v>
+      </c>
+      <c r="K26" s="46">
+        <f t="shared" ref="K26:X26" si="52">K25*0.15</f>
+        <v>24384.635955115868</v>
+      </c>
+      <c r="L26" s="46">
+        <f t="shared" si="52"/>
+        <v>30735.373512903738</v>
+      </c>
+      <c r="M26" s="46">
+        <f t="shared" si="52"/>
+        <v>38582.334795671013</v>
+      </c>
+      <c r="N26" s="46">
+        <f t="shared" si="52"/>
+        <v>48270.035793794894</v>
+      </c>
+      <c r="O26" s="46">
+        <f t="shared" si="52"/>
+        <v>55664.378298273288</v>
+      </c>
+      <c r="P26" s="46">
+        <f t="shared" si="52"/>
+        <v>63803.100176278705</v>
+      </c>
+      <c r="Q26" s="46">
+        <f t="shared" si="52"/>
+        <v>72761.497425029112</v>
+      </c>
+      <c r="R26" s="46">
+        <f t="shared" si="52"/>
+        <v>82622.394748626553</v>
+      </c>
+      <c r="S26" s="46">
+        <f t="shared" si="52"/>
+        <v>93476.898723164384</v>
+      </c>
+      <c r="T26" s="46">
+        <f t="shared" si="52"/>
+        <v>100391.37200681728</v>
+      </c>
+      <c r="U26" s="46">
+        <f t="shared" si="52"/>
+        <v>107669.25381510898</v>
+      </c>
+      <c r="V26" s="46">
+        <f t="shared" si="52"/>
+        <v>115329.42333332822</v>
+      </c>
+      <c r="W26" s="46">
+        <f t="shared" si="52"/>
+        <v>123391.7075926035</v>
+      </c>
+      <c r="X26" s="46">
+        <f t="shared" si="52"/>
+        <v>131876.92909151356</v>
       </c>
     </row>
     <row r="27" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2576,27 +2612,27 @@
         <v>57</v>
       </c>
       <c r="B27" s="28">
-        <f t="shared" ref="B27" si="57">B25-B26</f>
+        <f t="shared" ref="B27" si="53">B25-B26</f>
         <v>12786</v>
       </c>
       <c r="C27" s="28">
-        <f t="shared" ref="C27:D27" si="58">C25-C26</f>
+        <f t="shared" ref="C27:D27" si="54">C25-C26</f>
         <v>15563</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>23878</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" ref="E27:I27" si="59">E25-E26</f>
+        <f t="shared" ref="E27:I27" si="55">E25-E26</f>
         <v>29108</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>41447</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>72438</v>
       </c>
       <c r="H27" s="28">
@@ -2604,980 +2640,980 @@
         <v>79984</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>95888</v>
       </c>
       <c r="J27" s="28">
         <f>J25-J26</f>
-        <v>95770.077113523075</v>
+        <v>109082.43507857771</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" ref="K27:S27" si="60">K25-K26</f>
-        <v>117946.98964164921</v>
+        <f t="shared" ref="K27:S27" si="56">K25-K26</f>
+        <v>138179.60374565658</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="60"/>
-        <v>144481.42185529153</v>
+        <f t="shared" si="56"/>
+        <v>174167.11657312117</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="60"/>
-        <v>176193.63959795769</v>
+        <f t="shared" si="56"/>
+        <v>218633.23050880243</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="60"/>
-        <v>214057.2203119128</v>
+        <f t="shared" si="56"/>
+        <v>273530.2028315044</v>
       </c>
       <c r="O27" s="28">
-        <f t="shared" si="60"/>
-        <v>233077.02660270382</v>
+        <f t="shared" si="56"/>
+        <v>315431.47702354862</v>
       </c>
       <c r="P27" s="28">
-        <f t="shared" si="60"/>
-        <v>253086.78164993535</v>
+        <f t="shared" si="56"/>
+        <v>361550.90099891264</v>
       </c>
       <c r="Q27" s="28">
-        <f t="shared" si="60"/>
-        <v>274138.69377749716</v>
+        <f t="shared" si="56"/>
+        <v>412315.15207516495</v>
       </c>
       <c r="R27" s="28">
-        <f t="shared" si="60"/>
-        <v>296287.58683868579</v>
+        <f t="shared" si="56"/>
+        <v>468193.5702422171</v>
       </c>
       <c r="S27" s="28">
-        <f t="shared" si="60"/>
-        <v>319591.03189903614</v>
+        <f t="shared" si="56"/>
+        <v>529702.42609793157</v>
       </c>
       <c r="T27" s="28">
-        <f t="shared" ref="T27:X27" si="61">T25-T26</f>
-        <v>344109.48550231458</v>
+        <f t="shared" ref="T27:X27" si="57">T25-T26</f>
+        <v>568884.44137196464</v>
       </c>
       <c r="U27" s="28">
-        <f t="shared" si="61"/>
-        <v>369906.43484914198</v>
+        <f t="shared" si="57"/>
+        <v>610125.77161895088</v>
       </c>
       <c r="V27" s="28">
-        <f t="shared" si="61"/>
-        <v>397048.55023418856</v>
+        <f t="shared" si="57"/>
+        <v>653533.3988888599</v>
       </c>
       <c r="W27" s="28">
-        <f t="shared" si="61"/>
-        <v>425605.84510517697</v>
+        <f t="shared" si="57"/>
+        <v>699219.67635808652</v>
       </c>
       <c r="X27" s="28">
-        <f t="shared" si="61"/>
-        <v>455651.84412509279</v>
+        <f t="shared" si="57"/>
+        <v>747302.59818524355</v>
       </c>
       <c r="Y27" s="15">
         <f>X27*($F$2+1)</f>
-        <v>451095.32568384183</v>
+        <v>739829.57220339112</v>
       </c>
       <c r="Z27" s="15">
-        <f t="shared" ref="Z27:CJ27" si="62">Y27*($F$2+1)</f>
-        <v>446584.3724270034</v>
+        <f t="shared" ref="Z27:CJ27" si="58">Y27*($F$2+1)</f>
+        <v>732431.27648135717</v>
       </c>
       <c r="AA27" s="15">
-        <f t="shared" si="62"/>
-        <v>442118.52870273334</v>
+        <f t="shared" si="58"/>
+        <v>725106.96371654363</v>
       </c>
       <c r="AB27" s="15">
-        <f t="shared" si="62"/>
-        <v>437697.34341570601</v>
+        <f t="shared" si="58"/>
+        <v>717855.89407937822</v>
       </c>
       <c r="AC27" s="15">
-        <f t="shared" si="62"/>
-        <v>433320.36998154892</v>
+        <f t="shared" si="58"/>
+        <v>710677.33513858449</v>
       </c>
       <c r="AD27" s="15">
-        <f t="shared" si="62"/>
-        <v>428987.16628173343</v>
+        <f t="shared" si="58"/>
+        <v>703570.56178719865</v>
       </c>
       <c r="AE27" s="15">
-        <f t="shared" si="62"/>
-        <v>424697.29461891612</v>
+        <f t="shared" si="58"/>
+        <v>696534.8561693267</v>
       </c>
       <c r="AF27" s="15">
-        <f t="shared" si="62"/>
-        <v>420450.32167272695</v>
+        <f t="shared" si="58"/>
+        <v>689569.50760763348</v>
       </c>
       <c r="AG27" s="15">
-        <f t="shared" si="62"/>
-        <v>416245.81845599966</v>
+        <f t="shared" si="58"/>
+        <v>682673.81253155717</v>
       </c>
       <c r="AH27" s="15">
-        <f t="shared" si="62"/>
-        <v>412083.36027143965</v>
+        <f t="shared" si="58"/>
+        <v>675847.07440624153</v>
       </c>
       <c r="AI27" s="15">
-        <f t="shared" si="62"/>
-        <v>407962.52666872524</v>
+        <f t="shared" si="58"/>
+        <v>669088.60366217908</v>
       </c>
       <c r="AJ27" s="15">
-        <f t="shared" si="62"/>
-        <v>403882.901402038</v>
+        <f t="shared" si="58"/>
+        <v>662397.71762555733</v>
       </c>
       <c r="AK27" s="15">
-        <f t="shared" si="62"/>
-        <v>399844.07238801761</v>
+        <f t="shared" si="58"/>
+        <v>655773.74044930178</v>
       </c>
       <c r="AL27" s="15">
-        <f t="shared" si="62"/>
-        <v>395845.63166413741</v>
+        <f t="shared" si="58"/>
+        <v>649216.00304480875</v>
       </c>
       <c r="AM27" s="15">
-        <f t="shared" si="62"/>
-        <v>391887.17534749606</v>
+        <f t="shared" si="58"/>
+        <v>642723.84301436064</v>
       </c>
       <c r="AN27" s="15">
-        <f t="shared" si="62"/>
-        <v>387968.30359402107</v>
+        <f t="shared" si="58"/>
+        <v>636296.60458421707</v>
       </c>
       <c r="AO27" s="15">
-        <f t="shared" si="62"/>
-        <v>384088.62055808085</v>
+        <f t="shared" si="58"/>
+        <v>629933.63853837491</v>
       </c>
       <c r="AP27" s="15">
-        <f t="shared" si="62"/>
-        <v>380247.73435250006</v>
+        <f t="shared" si="58"/>
+        <v>623634.30215299118</v>
       </c>
       <c r="AQ27" s="15">
-        <f t="shared" si="62"/>
-        <v>376445.25700897508</v>
+        <f t="shared" si="58"/>
+        <v>617397.95913146122</v>
       </c>
       <c r="AR27" s="15">
-        <f t="shared" si="62"/>
-        <v>372680.8044388853</v>
+        <f t="shared" si="58"/>
+        <v>611223.97954014665</v>
       </c>
       <c r="AS27" s="15">
-        <f t="shared" si="62"/>
-        <v>368953.99639449647</v>
+        <f t="shared" si="58"/>
+        <v>605111.73974474519</v>
       </c>
       <c r="AT27" s="15">
-        <f t="shared" si="62"/>
-        <v>365264.45643055148</v>
+        <f t="shared" si="58"/>
+        <v>599060.62234729773</v>
       </c>
       <c r="AU27" s="15">
-        <f t="shared" si="62"/>
-        <v>361611.81186624599</v>
+        <f t="shared" si="58"/>
+        <v>593070.01612382475</v>
       </c>
       <c r="AV27" s="15">
-        <f t="shared" si="62"/>
-        <v>357995.69374758354</v>
+        <f t="shared" si="58"/>
+        <v>587139.31596258655</v>
       </c>
       <c r="AW27" s="15">
-        <f t="shared" si="62"/>
-        <v>354415.73681010772</v>
+        <f t="shared" si="58"/>
+        <v>581267.92280296073</v>
       </c>
       <c r="AX27" s="15">
-        <f t="shared" si="62"/>
-        <v>350871.57944200665</v>
+        <f t="shared" si="58"/>
+        <v>575455.24357493117</v>
       </c>
       <c r="AY27" s="15">
-        <f t="shared" si="62"/>
-        <v>347362.86364758661</v>
+        <f t="shared" si="58"/>
+        <v>569700.69113918184</v>
       </c>
       <c r="AZ27" s="15">
-        <f t="shared" si="62"/>
-        <v>343889.23501111072</v>
+        <f t="shared" si="58"/>
+        <v>564003.68422778999</v>
       </c>
       <c r="BA27" s="15">
-        <f t="shared" si="62"/>
-        <v>340450.34266099962</v>
+        <f t="shared" si="58"/>
+        <v>558363.64738551213</v>
       </c>
       <c r="BB27" s="15">
-        <f t="shared" si="62"/>
-        <v>337045.8392343896</v>
+        <f t="shared" si="58"/>
+        <v>552780.01091165701</v>
       </c>
       <c r="BC27" s="15">
-        <f t="shared" si="62"/>
-        <v>333675.38084204571</v>
+        <f t="shared" si="58"/>
+        <v>547252.21080254042</v>
       </c>
       <c r="BD27" s="15">
-        <f t="shared" si="62"/>
-        <v>330338.62703362526</v>
+        <f t="shared" si="58"/>
+        <v>541779.68869451503</v>
       </c>
       <c r="BE27" s="15">
-        <f t="shared" si="62"/>
-        <v>327035.24076328898</v>
+        <f t="shared" si="58"/>
+        <v>536361.89180756989</v>
       </c>
       <c r="BF27" s="15">
-        <f t="shared" si="62"/>
-        <v>323764.88835565606</v>
+        <f t="shared" si="58"/>
+        <v>530998.2728894942</v>
       </c>
       <c r="BG27" s="15">
-        <f t="shared" si="62"/>
-        <v>320527.23947209952</v>
+        <f t="shared" si="58"/>
+        <v>525688.29016059928</v>
       </c>
       <c r="BH27" s="15">
-        <f t="shared" si="62"/>
-        <v>317321.96707737853</v>
+        <f t="shared" si="58"/>
+        <v>520431.40725899331</v>
       </c>
       <c r="BI27" s="15">
-        <f t="shared" si="62"/>
-        <v>314148.74740660476</v>
+        <f t="shared" si="58"/>
+        <v>515227.09318640339</v>
       </c>
       <c r="BJ27" s="15">
-        <f t="shared" si="62"/>
-        <v>311007.25993253873</v>
+        <f t="shared" si="58"/>
+        <v>510074.82225453935</v>
       </c>
       <c r="BK27" s="15">
-        <f t="shared" si="62"/>
-        <v>307897.18733321334</v>
+        <f t="shared" si="58"/>
+        <v>504974.07403199398</v>
       </c>
       <c r="BL27" s="15">
-        <f t="shared" si="62"/>
-        <v>304818.21545988118</v>
+        <f t="shared" si="58"/>
+        <v>499924.33329167403</v>
       </c>
       <c r="BM27" s="15">
-        <f t="shared" si="62"/>
-        <v>301770.03330528236</v>
+        <f t="shared" si="58"/>
+        <v>494925.08995875728</v>
       </c>
       <c r="BN27" s="15">
-        <f t="shared" si="62"/>
-        <v>298752.33297222952</v>
+        <f t="shared" si="58"/>
+        <v>489975.8390591697</v>
       </c>
       <c r="BO27" s="15">
-        <f t="shared" si="62"/>
-        <v>295764.80964250723</v>
+        <f t="shared" si="58"/>
+        <v>485076.08066857798</v>
       </c>
       <c r="BP27" s="15">
-        <f t="shared" si="62"/>
-        <v>292807.16154608218</v>
+        <f t="shared" si="58"/>
+        <v>480225.3198618922</v>
       </c>
       <c r="BQ27" s="15">
-        <f t="shared" si="62"/>
-        <v>289879.08993062133</v>
+        <f t="shared" si="58"/>
+        <v>475423.06666327326</v>
       </c>
       <c r="BR27" s="15">
-        <f t="shared" si="62"/>
-        <v>286980.29903131508</v>
+        <f t="shared" si="58"/>
+        <v>470668.8359966405</v>
       </c>
       <c r="BS27" s="15">
-        <f t="shared" si="62"/>
-        <v>284110.49604100193</v>
+        <f t="shared" si="58"/>
+        <v>465962.14763667411</v>
       </c>
       <c r="BT27" s="15">
-        <f t="shared" si="62"/>
-        <v>281269.39108059189</v>
+        <f t="shared" si="58"/>
+        <v>461302.52616030734</v>
       </c>
       <c r="BU27" s="15">
-        <f t="shared" si="62"/>
-        <v>278456.69716978597</v>
+        <f t="shared" si="58"/>
+        <v>456689.50089870428</v>
       </c>
       <c r="BV27" s="15">
-        <f t="shared" si="62"/>
-        <v>275672.13019808813</v>
+        <f t="shared" si="58"/>
+        <v>452122.60588971723</v>
       </c>
       <c r="BW27" s="15">
-        <f t="shared" si="62"/>
-        <v>272915.40889610723</v>
+        <f t="shared" si="58"/>
+        <v>447601.37983082008</v>
       </c>
       <c r="BX27" s="15">
-        <f t="shared" si="62"/>
-        <v>270186.25480714615</v>
+        <f t="shared" si="58"/>
+        <v>443125.36603251187</v>
       </c>
       <c r="BY27" s="15">
-        <f t="shared" si="62"/>
-        <v>267484.39225907467</v>
+        <f t="shared" si="58"/>
+        <v>438694.11237218673</v>
       </c>
       <c r="BZ27" s="15">
-        <f t="shared" si="62"/>
-        <v>264809.54833648395</v>
+        <f t="shared" si="58"/>
+        <v>434307.17124846485</v>
       </c>
       <c r="CA27" s="15">
-        <f t="shared" si="62"/>
-        <v>262161.45285311912</v>
+        <f t="shared" si="58"/>
+        <v>429964.0995359802</v>
       </c>
       <c r="CB27" s="15">
-        <f t="shared" si="62"/>
-        <v>259539.83832458794</v>
+        <f t="shared" si="58"/>
+        <v>425664.4585406204</v>
       </c>
       <c r="CC27" s="15">
-        <f t="shared" si="62"/>
-        <v>256944.43994134205</v>
+        <f t="shared" si="58"/>
+        <v>421407.81395521417</v>
       </c>
       <c r="CD27" s="15">
-        <f t="shared" si="62"/>
-        <v>254374.99554192863</v>
+        <f t="shared" si="58"/>
+        <v>417193.73581566202</v>
       </c>
       <c r="CE27" s="15">
-        <f t="shared" si="62"/>
-        <v>251831.24558650935</v>
+        <f t="shared" si="58"/>
+        <v>413021.79845750541</v>
       </c>
       <c r="CF27" s="15">
-        <f t="shared" si="62"/>
-        <v>249312.93313064426</v>
+        <f t="shared" si="58"/>
+        <v>408891.58047293033</v>
       </c>
       <c r="CG27" s="15">
-        <f t="shared" si="62"/>
-        <v>246819.80379933782</v>
+        <f t="shared" si="58"/>
+        <v>404802.664668201</v>
       </c>
       <c r="CH27" s="15">
-        <f t="shared" si="62"/>
-        <v>244351.60576134446</v>
+        <f t="shared" si="58"/>
+        <v>400754.638021519</v>
       </c>
       <c r="CI27" s="15">
-        <f t="shared" si="62"/>
-        <v>241908.08970373101</v>
+        <f t="shared" si="58"/>
+        <v>396747.09164130379</v>
       </c>
       <c r="CJ27" s="15">
-        <f t="shared" si="62"/>
-        <v>239489.00880669369</v>
+        <f t="shared" si="58"/>
+        <v>392779.62072489073</v>
       </c>
       <c r="CK27" s="15">
-        <f t="shared" ref="CK27:EV27" si="63">CJ27*($F$2+1)</f>
-        <v>237094.11871862673</v>
+        <f t="shared" ref="CK27:EV27" si="59">CJ27*($F$2+1)</f>
+        <v>388851.8245176418</v>
       </c>
       <c r="CL27" s="15">
-        <f t="shared" si="63"/>
-        <v>234723.17753144045</v>
+        <f t="shared" si="59"/>
+        <v>384963.30627246539</v>
       </c>
       <c r="CM27" s="15">
-        <f t="shared" si="63"/>
-        <v>232375.94575612605</v>
+        <f t="shared" si="59"/>
+        <v>381113.67320974072</v>
       </c>
       <c r="CN27" s="15">
-        <f t="shared" si="63"/>
-        <v>230052.18629856477</v>
+        <f t="shared" si="59"/>
+        <v>377302.5364776433</v>
       </c>
       <c r="CO27" s="15">
-        <f t="shared" si="63"/>
-        <v>227751.66443557912</v>
+        <f t="shared" si="59"/>
+        <v>373529.51111286687</v>
       </c>
       <c r="CP27" s="15">
-        <f t="shared" si="63"/>
-        <v>225474.14779122334</v>
+        <f t="shared" si="59"/>
+        <v>369794.21600173821</v>
       </c>
       <c r="CQ27" s="15">
-        <f t="shared" si="63"/>
-        <v>223219.4063133111</v>
+        <f t="shared" si="59"/>
+        <v>366096.27384172083</v>
       </c>
       <c r="CR27" s="15">
-        <f t="shared" si="63"/>
-        <v>220987.21225017798</v>
+        <f t="shared" si="59"/>
+        <v>362435.31110330363</v>
       </c>
       <c r="CS27" s="15">
-        <f t="shared" si="63"/>
-        <v>218777.3401276762</v>
+        <f t="shared" si="59"/>
+        <v>358810.95799227059</v>
       </c>
       <c r="CT27" s="15">
-        <f t="shared" si="63"/>
-        <v>216589.56672639944</v>
+        <f t="shared" si="59"/>
+        <v>355222.8484123479</v>
       </c>
       <c r="CU27" s="15">
-        <f t="shared" si="63"/>
-        <v>214423.67105913543</v>
+        <f t="shared" si="59"/>
+        <v>351670.61992822442</v>
       </c>
       <c r="CV27" s="15">
-        <f t="shared" si="63"/>
-        <v>212279.43434854408</v>
+        <f t="shared" si="59"/>
+        <v>348153.91372894216</v>
       </c>
       <c r="CW27" s="15">
-        <f t="shared" si="63"/>
-        <v>210156.64000505864</v>
+        <f t="shared" si="59"/>
+        <v>344672.37459165271</v>
       </c>
       <c r="CX27" s="15">
-        <f t="shared" si="63"/>
-        <v>208055.07360500804</v>
+        <f t="shared" si="59"/>
+        <v>341225.65084573621</v>
       </c>
       <c r="CY27" s="15">
-        <f t="shared" si="63"/>
-        <v>205974.52286895795</v>
+        <f t="shared" si="59"/>
+        <v>337813.39433727885</v>
       </c>
       <c r="CZ27" s="15">
-        <f t="shared" si="63"/>
-        <v>203914.77764026838</v>
+        <f t="shared" si="59"/>
+        <v>334435.26039390604</v>
       </c>
       <c r="DA27" s="15">
-        <f t="shared" si="63"/>
-        <v>201875.6298638657</v>
+        <f t="shared" si="59"/>
+        <v>331090.90778996696</v>
       </c>
       <c r="DB27" s="15">
-        <f t="shared" si="63"/>
-        <v>199856.87356522706</v>
+        <f t="shared" si="59"/>
+        <v>327779.99871206732</v>
       </c>
       <c r="DC27" s="15">
-        <f t="shared" si="63"/>
-        <v>197858.30482957477</v>
+        <f t="shared" si="59"/>
+        <v>324502.19872494665</v>
       </c>
       <c r="DD27" s="15">
-        <f t="shared" si="63"/>
-        <v>195879.72178127902</v>
+        <f t="shared" si="59"/>
+        <v>321257.17673769715</v>
       </c>
       <c r="DE27" s="15">
-        <f t="shared" si="63"/>
-        <v>193920.92456346622</v>
+        <f t="shared" si="59"/>
+        <v>318044.60497032019</v>
       </c>
       <c r="DF27" s="15">
-        <f t="shared" si="63"/>
-        <v>191981.71531783155</v>
+        <f t="shared" si="59"/>
+        <v>314864.15892061696</v>
       </c>
       <c r="DG27" s="15">
-        <f t="shared" si="63"/>
-        <v>190061.89816465322</v>
+        <f t="shared" si="59"/>
+        <v>311715.51733141078</v>
       </c>
       <c r="DH27" s="15">
-        <f t="shared" si="63"/>
-        <v>188161.2791830067</v>
+        <f t="shared" si="59"/>
+        <v>308598.36215809669</v>
       </c>
       <c r="DI27" s="15">
-        <f t="shared" si="63"/>
-        <v>186279.66639117664</v>
+        <f t="shared" si="59"/>
+        <v>305512.37853651569</v>
       </c>
       <c r="DJ27" s="15">
-        <f t="shared" si="63"/>
-        <v>184416.86972726486</v>
+        <f t="shared" si="59"/>
+        <v>302457.25475115055</v>
       </c>
       <c r="DK27" s="15">
-        <f t="shared" si="63"/>
-        <v>182572.7010299922</v>
+        <f t="shared" si="59"/>
+        <v>299432.68220363907</v>
       </c>
       <c r="DL27" s="15">
-        <f t="shared" si="63"/>
-        <v>180746.97401969228</v>
+        <f t="shared" si="59"/>
+        <v>296438.35538160265</v>
       </c>
       <c r="DM27" s="15">
-        <f t="shared" si="63"/>
-        <v>178939.50427949536</v>
+        <f t="shared" si="59"/>
+        <v>293473.97182778665</v>
       </c>
       <c r="DN27" s="15">
-        <f t="shared" si="63"/>
-        <v>177150.1092367004</v>
+        <f t="shared" si="59"/>
+        <v>290539.23210950877</v>
       </c>
       <c r="DO27" s="15">
-        <f t="shared" si="63"/>
-        <v>175378.60814433338</v>
+        <f t="shared" si="59"/>
+        <v>287633.83978841366</v>
       </c>
       <c r="DP27" s="15">
-        <f t="shared" si="63"/>
-        <v>173624.82206289005</v>
+        <f t="shared" si="59"/>
+        <v>284757.50139052951</v>
       </c>
       <c r="DQ27" s="15">
-        <f t="shared" si="63"/>
-        <v>171888.57384226113</v>
+        <f t="shared" si="59"/>
+        <v>281909.92637662421</v>
       </c>
       <c r="DR27" s="15">
-        <f t="shared" si="63"/>
-        <v>170169.68810383853</v>
+        <f t="shared" si="59"/>
+        <v>279090.82711285795</v>
       </c>
       <c r="DS27" s="15">
-        <f t="shared" si="63"/>
-        <v>168467.99122280013</v>
+        <f t="shared" si="59"/>
+        <v>276299.91884172935</v>
       </c>
       <c r="DT27" s="15">
-        <f t="shared" si="63"/>
-        <v>166783.31131057214</v>
+        <f t="shared" si="59"/>
+        <v>273536.91965331207</v>
       </c>
       <c r="DU27" s="15">
-        <f t="shared" si="63"/>
-        <v>165115.47819746641</v>
+        <f t="shared" si="59"/>
+        <v>270801.55045677896</v>
       </c>
       <c r="DV27" s="15">
-        <f t="shared" si="63"/>
-        <v>163464.32341549173</v>
+        <f t="shared" si="59"/>
+        <v>268093.53495221119</v>
       </c>
       <c r="DW27" s="15">
-        <f t="shared" si="63"/>
-        <v>161829.68018133682</v>
+        <f t="shared" si="59"/>
+        <v>265412.59960268909</v>
       </c>
       <c r="DX27" s="15">
-        <f t="shared" si="63"/>
-        <v>160211.38337952344</v>
+        <f t="shared" si="59"/>
+        <v>262758.47360666218</v>
       </c>
       <c r="DY27" s="15">
-        <f t="shared" si="63"/>
-        <v>158609.2695457282</v>
+        <f t="shared" si="59"/>
+        <v>260130.88887059555</v>
       </c>
       <c r="DZ27" s="15">
-        <f t="shared" si="63"/>
-        <v>157023.17685027092</v>
+        <f t="shared" si="59"/>
+        <v>257529.57998188958</v>
       </c>
       <c r="EA27" s="15">
-        <f t="shared" si="63"/>
-        <v>155452.94508176821</v>
+        <f t="shared" si="59"/>
+        <v>254954.28418207067</v>
       </c>
       <c r="EB27" s="15">
-        <f t="shared" si="63"/>
-        <v>153898.41563095053</v>
+        <f t="shared" si="59"/>
+        <v>252404.74134024995</v>
       </c>
       <c r="EC27" s="15">
-        <f t="shared" si="63"/>
-        <v>152359.43147464102</v>
+        <f t="shared" si="59"/>
+        <v>249880.69392684745</v>
       </c>
       <c r="ED27" s="15">
-        <f t="shared" si="63"/>
-        <v>150835.83715989461</v>
+        <f t="shared" si="59"/>
+        <v>247381.88698757897</v>
       </c>
       <c r="EE27" s="15">
-        <f t="shared" si="63"/>
-        <v>149327.47878829567</v>
+        <f t="shared" si="59"/>
+        <v>244908.06811770317</v>
       </c>
       <c r="EF27" s="15">
-        <f t="shared" si="63"/>
-        <v>147834.20400041272</v>
+        <f t="shared" si="59"/>
+        <v>242458.98743652613</v>
       </c>
       <c r="EG27" s="15">
-        <f t="shared" si="63"/>
-        <v>146355.8619604086</v>
+        <f t="shared" si="59"/>
+        <v>240034.39756216088</v>
       </c>
       <c r="EH27" s="15">
-        <f t="shared" si="63"/>
-        <v>144892.3033408045</v>
+        <f t="shared" si="59"/>
+        <v>237634.05358653926</v>
       </c>
       <c r="EI27" s="15">
-        <f t="shared" si="63"/>
-        <v>143443.38030739647</v>
+        <f t="shared" si="59"/>
+        <v>235257.71305067386</v>
       </c>
       <c r="EJ27" s="15">
-        <f t="shared" si="63"/>
-        <v>142008.94650432249</v>
+        <f t="shared" si="59"/>
+        <v>232905.13592016711</v>
       </c>
       <c r="EK27" s="15">
-        <f t="shared" si="63"/>
-        <v>140588.85703927928</v>
+        <f t="shared" si="59"/>
+        <v>230576.08456096545</v>
       </c>
       <c r="EL27" s="15">
-        <f t="shared" si="63"/>
-        <v>139182.96846888648</v>
+        <f t="shared" si="59"/>
+        <v>228270.3237153558</v>
       </c>
       <c r="EM27" s="15">
-        <f t="shared" si="63"/>
-        <v>137791.13878419762</v>
+        <f t="shared" si="59"/>
+        <v>225987.62047820224</v>
       </c>
       <c r="EN27" s="15">
-        <f t="shared" si="63"/>
-        <v>136413.22739635565</v>
+        <f t="shared" si="59"/>
+        <v>223727.74427342022</v>
       </c>
       <c r="EO27" s="15">
-        <f t="shared" si="63"/>
-        <v>135049.09512239209</v>
+        <f t="shared" si="59"/>
+        <v>221490.46683068603</v>
       </c>
       <c r="EP27" s="15">
-        <f t="shared" si="63"/>
-        <v>133698.60417116818</v>
+        <f t="shared" si="59"/>
+        <v>219275.56216237915</v>
       </c>
       <c r="EQ27" s="15">
-        <f t="shared" si="63"/>
-        <v>132361.6181294565</v>
+        <f t="shared" si="59"/>
+        <v>217082.80654075535</v>
       </c>
       <c r="ER27" s="15">
-        <f t="shared" si="63"/>
-        <v>131038.00194816194</v>
+        <f t="shared" si="59"/>
+        <v>214911.9784753478</v>
       </c>
       <c r="ES27" s="15">
-        <f t="shared" si="63"/>
-        <v>129727.62192868032</v>
+        <f t="shared" si="59"/>
+        <v>212762.85869059432</v>
       </c>
       <c r="ET27" s="15">
-        <f t="shared" si="63"/>
-        <v>128430.34570939351</v>
+        <f t="shared" si="59"/>
+        <v>210635.23010368837</v>
       </c>
       <c r="EU27" s="15">
-        <f t="shared" si="63"/>
-        <v>127146.04225229958</v>
+        <f t="shared" si="59"/>
+        <v>208528.87780265149</v>
       </c>
       <c r="EV27" s="15">
-        <f t="shared" si="63"/>
-        <v>125874.58182977658</v>
+        <f t="shared" si="59"/>
+        <v>206443.58902462496</v>
       </c>
       <c r="EW27" s="15">
-        <f t="shared" ref="EW27:HH27" si="64">EV27*($F$2+1)</f>
-        <v>124615.83601147881</v>
+        <f t="shared" ref="EW27:HH27" si="60">EV27*($F$2+1)</f>
+        <v>204379.15313437872</v>
       </c>
       <c r="EX27" s="15">
-        <f t="shared" si="64"/>
-        <v>123369.67765136402</v>
+        <f t="shared" si="60"/>
+        <v>202335.36160303492</v>
       </c>
       <c r="EY27" s="15">
-        <f t="shared" si="64"/>
-        <v>122135.98087485039</v>
+        <f t="shared" si="60"/>
+        <v>200312.00798700456</v>
       </c>
       <c r="EZ27" s="15">
-        <f t="shared" si="64"/>
-        <v>120914.62106610188</v>
+        <f t="shared" si="60"/>
+        <v>198308.88790713451</v>
       </c>
       <c r="FA27" s="15">
-        <f t="shared" si="64"/>
-        <v>119705.47485544086</v>
+        <f t="shared" si="60"/>
+        <v>196325.79902806316</v>
       </c>
       <c r="FB27" s="15">
-        <f t="shared" si="64"/>
-        <v>118508.42010688645</v>
+        <f t="shared" si="60"/>
+        <v>194362.54103778253</v>
       </c>
       <c r="FC27" s="15">
-        <f t="shared" si="64"/>
-        <v>117323.33590581758</v>
+        <f t="shared" si="60"/>
+        <v>192418.9156274047</v>
       </c>
       <c r="FD27" s="15">
-        <f t="shared" si="64"/>
-        <v>116150.1025467594</v>
+        <f t="shared" si="60"/>
+        <v>190494.72647113065</v>
       </c>
       <c r="FE27" s="15">
-        <f t="shared" si="64"/>
-        <v>114988.6015212918</v>
+        <f t="shared" si="60"/>
+        <v>188589.77920641933</v>
       </c>
       <c r="FF27" s="15">
-        <f t="shared" si="64"/>
-        <v>113838.71550607888</v>
+        <f t="shared" si="60"/>
+        <v>186703.88141435513</v>
       </c>
       <c r="FG27" s="15">
-        <f t="shared" si="64"/>
-        <v>112700.32835101809</v>
+        <f t="shared" si="60"/>
+        <v>184836.84260021159</v>
       </c>
       <c r="FH27" s="15">
-        <f t="shared" si="64"/>
-        <v>111573.3250675079</v>
+        <f t="shared" si="60"/>
+        <v>182988.47417420946</v>
       </c>
       <c r="FI27" s="15">
-        <f t="shared" si="64"/>
-        <v>110457.59181683282</v>
+        <f t="shared" si="60"/>
+        <v>181158.58943246736</v>
       </c>
       <c r="FJ27" s="15">
-        <f t="shared" si="64"/>
-        <v>109353.0158986645</v>
+        <f t="shared" si="60"/>
+        <v>179347.00353814269</v>
       </c>
       <c r="FK27" s="15">
-        <f t="shared" si="64"/>
-        <v>108259.48573967785</v>
+        <f t="shared" si="60"/>
+        <v>177553.53350276125</v>
       </c>
       <c r="FL27" s="15">
-        <f t="shared" si="64"/>
-        <v>107176.89088228108</v>
+        <f t="shared" si="60"/>
+        <v>175777.99816773363</v>
       </c>
       <c r="FM27" s="15">
-        <f t="shared" si="64"/>
-        <v>106105.12197345827</v>
+        <f t="shared" si="60"/>
+        <v>174020.2181860563</v>
       </c>
       <c r="FN27" s="15">
-        <f t="shared" si="64"/>
-        <v>105044.07075372369</v>
+        <f t="shared" si="60"/>
+        <v>172280.01600419573</v>
       </c>
       <c r="FO27" s="15">
-        <f t="shared" si="64"/>
-        <v>103993.63004618644</v>
+        <f t="shared" si="60"/>
+        <v>170557.21584415378</v>
       </c>
       <c r="FP27" s="15">
-        <f t="shared" si="64"/>
-        <v>102953.69374572458</v>
+        <f t="shared" si="60"/>
+        <v>168851.64368571225</v>
       </c>
       <c r="FQ27" s="15">
-        <f t="shared" si="64"/>
-        <v>101924.15680826733</v>
+        <f t="shared" si="60"/>
+        <v>167163.12724885513</v>
       </c>
       <c r="FR27" s="15">
-        <f t="shared" si="64"/>
-        <v>100904.91524018467</v>
+        <f t="shared" si="60"/>
+        <v>165491.49597636657</v>
       </c>
       <c r="FS27" s="15">
-        <f t="shared" si="64"/>
-        <v>99895.866087782822</v>
+        <f t="shared" si="60"/>
+        <v>163836.5810166029</v>
       </c>
       <c r="FT27" s="15">
-        <f t="shared" si="64"/>
-        <v>98896.907426904989</v>
+        <f t="shared" si="60"/>
+        <v>162198.21520643687</v>
       </c>
       <c r="FU27" s="15">
-        <f t="shared" si="64"/>
-        <v>97907.938352635945</v>
+        <f t="shared" si="60"/>
+        <v>160576.23305437251</v>
       </c>
       <c r="FV27" s="15">
-        <f t="shared" si="64"/>
-        <v>96928.858969109584</v>
+        <f t="shared" si="60"/>
+        <v>158970.4707238288</v>
       </c>
       <c r="FW27" s="15">
-        <f t="shared" si="64"/>
-        <v>95959.570379418481</v>
+        <f t="shared" si="60"/>
+        <v>157380.7660165905</v>
       </c>
       <c r="FX27" s="15">
-        <f t="shared" si="64"/>
-        <v>94999.974675624297</v>
+        <f t="shared" si="60"/>
+        <v>155806.95835642458</v>
       </c>
       <c r="FY27" s="15">
-        <f t="shared" si="64"/>
-        <v>94049.974928868047</v>
+        <f t="shared" si="60"/>
+        <v>154248.88877286034</v>
       </c>
       <c r="FZ27" s="15">
-        <f t="shared" si="64"/>
-        <v>93109.475179579371</v>
+        <f t="shared" si="60"/>
+        <v>152706.39988513174</v>
       </c>
       <c r="GA27" s="15">
-        <f t="shared" si="64"/>
-        <v>92178.380427783573</v>
+        <f t="shared" si="60"/>
+        <v>151179.33588628043</v>
       </c>
       <c r="GB27" s="15">
-        <f t="shared" si="64"/>
-        <v>91256.596623505742</v>
+        <f t="shared" si="60"/>
+        <v>149667.54252741762</v>
       </c>
       <c r="GC27" s="15">
-        <f t="shared" si="64"/>
-        <v>90344.03065727069</v>
+        <f t="shared" si="60"/>
+        <v>148170.86710214344</v>
       </c>
       <c r="GD27" s="15">
-        <f t="shared" si="64"/>
-        <v>89440.590350697981</v>
+        <f t="shared" si="60"/>
+        <v>146689.15843112199</v>
       </c>
       <c r="GE27" s="15">
-        <f t="shared" si="64"/>
-        <v>88546.184447191001</v>
+        <f t="shared" si="60"/>
+        <v>145222.26684681076</v>
       </c>
       <c r="GF27" s="15">
-        <f t="shared" si="64"/>
-        <v>87660.722602719092</v>
+        <f t="shared" si="60"/>
+        <v>143770.04417834265</v>
       </c>
       <c r="GG27" s="15">
-        <f t="shared" si="64"/>
-        <v>86784.115376691901</v>
+        <f t="shared" si="60"/>
+        <v>142332.34373655921</v>
       </c>
       <c r="GH27" s="15">
-        <f t="shared" si="64"/>
-        <v>85916.274222924985</v>
+        <f t="shared" si="60"/>
+        <v>140909.02029919362</v>
       </c>
       <c r="GI27" s="15">
-        <f t="shared" si="64"/>
-        <v>85057.111480695734</v>
+        <f t="shared" si="60"/>
+        <v>139499.93009620169</v>
       </c>
       <c r="GJ27" s="15">
-        <f t="shared" si="64"/>
-        <v>84206.540365888781</v>
+        <f t="shared" si="60"/>
+        <v>138104.93079523966</v>
       </c>
       <c r="GK27" s="15">
-        <f t="shared" si="64"/>
-        <v>83364.474962229899</v>
+        <f t="shared" si="60"/>
+        <v>136723.88148728726</v>
       </c>
       <c r="GL27" s="15">
-        <f t="shared" si="64"/>
-        <v>82530.830212607601</v>
+        <f t="shared" si="60"/>
+        <v>135356.6426724144</v>
       </c>
       <c r="GM27" s="15">
-        <f t="shared" si="64"/>
-        <v>81705.521910481519</v>
+        <f t="shared" si="60"/>
+        <v>134003.07624569026</v>
       </c>
       <c r="GN27" s="15">
-        <f t="shared" si="64"/>
-        <v>80888.4666913767</v>
+        <f t="shared" si="60"/>
+        <v>132663.04548323335</v>
       </c>
       <c r="GO27" s="15">
-        <f t="shared" si="64"/>
-        <v>80079.582024462929</v>
+        <f t="shared" si="60"/>
+        <v>131336.41502840101</v>
       </c>
       <c r="GP27" s="15">
-        <f t="shared" si="64"/>
-        <v>79278.786204218297</v>
+        <f t="shared" si="60"/>
+        <v>130023.05087811699</v>
       </c>
       <c r="GQ27" s="15">
-        <f t="shared" si="64"/>
-        <v>78485.998342176114</v>
+        <f t="shared" si="60"/>
+        <v>128722.82036933582</v>
       </c>
       <c r="GR27" s="15">
-        <f t="shared" si="64"/>
-        <v>77701.138358754353</v>
+        <f t="shared" si="60"/>
+        <v>127435.59216564246</v>
       </c>
       <c r="GS27" s="15">
-        <f t="shared" si="64"/>
-        <v>76924.126975166815</v>
+        <f t="shared" si="60"/>
+        <v>126161.23624398603</v>
       </c>
       <c r="GT27" s="15">
-        <f t="shared" si="64"/>
-        <v>76154.885705415145</v>
+        <f t="shared" si="60"/>
+        <v>124899.62388154617</v>
       </c>
       <c r="GU27" s="15">
-        <f t="shared" si="64"/>
-        <v>75393.336848360996</v>
+        <f t="shared" si="60"/>
+        <v>123650.6276427307</v>
       </c>
       <c r="GV27" s="15">
-        <f t="shared" si="64"/>
-        <v>74639.403479877379</v>
+        <f t="shared" si="60"/>
+        <v>122414.1213663034</v>
       </c>
       <c r="GW27" s="15">
-        <f t="shared" si="64"/>
-        <v>73893.009445078598</v>
+        <f t="shared" si="60"/>
+        <v>121189.98015264036</v>
       </c>
       <c r="GX27" s="15">
-        <f t="shared" si="64"/>
-        <v>73154.079350627813</v>
+        <f t="shared" si="60"/>
+        <v>119978.08035111395</v>
       </c>
       <c r="GY27" s="15">
-        <f t="shared" si="64"/>
-        <v>72422.53855712153</v>
+        <f t="shared" si="60"/>
+        <v>118778.29954760282</v>
       </c>
       <c r="GZ27" s="15">
-        <f t="shared" si="64"/>
-        <v>71698.313171550311</v>
+        <f t="shared" si="60"/>
+        <v>117590.51655212679</v>
       </c>
       <c r="HA27" s="15">
-        <f t="shared" si="64"/>
-        <v>70981.330039834807</v>
+        <f t="shared" si="60"/>
+        <v>116414.61138660552</v>
       </c>
       <c r="HB27" s="15">
-        <f t="shared" si="64"/>
-        <v>70271.516739436454</v>
+        <f t="shared" si="60"/>
+        <v>115250.46527273947</v>
       </c>
       <c r="HC27" s="15">
-        <f t="shared" si="64"/>
-        <v>69568.801572042095</v>
+        <f t="shared" si="60"/>
+        <v>114097.96062001208</v>
       </c>
       <c r="HD27" s="15">
-        <f t="shared" si="64"/>
-        <v>68873.113556321667</v>
+        <f t="shared" si="60"/>
+        <v>112956.98101381195</v>
       </c>
       <c r="HE27" s="15">
-        <f t="shared" si="64"/>
-        <v>68184.382420758455</v>
+        <f t="shared" si="60"/>
+        <v>111827.41120367382</v>
       </c>
       <c r="HF27" s="15">
-        <f t="shared" si="64"/>
-        <v>67502.538596550876</v>
+        <f t="shared" si="60"/>
+        <v>110709.13709163708</v>
       </c>
       <c r="HG27" s="15">
-        <f t="shared" si="64"/>
-        <v>66827.51321058537</v>
+        <f t="shared" si="60"/>
+        <v>109602.04572072071</v>
       </c>
       <c r="HH27" s="15">
-        <f t="shared" si="64"/>
-        <v>66159.23807847951</v>
+        <f t="shared" si="60"/>
+        <v>108506.0252635135</v>
       </c>
       <c r="HI27" s="15">
-        <f t="shared" ref="HI27:IR27" si="65">HH27*($F$2+1)</f>
-        <v>65497.645697694716</v>
+        <f t="shared" ref="HI27:IR27" si="61">HH27*($F$2+1)</f>
+        <v>107420.96501087835</v>
       </c>
       <c r="HJ27" s="15">
-        <f t="shared" si="65"/>
-        <v>64842.669240717769</v>
+        <f t="shared" si="61"/>
+        <v>106346.75536076957</v>
       </c>
       <c r="HK27" s="15">
-        <f t="shared" si="65"/>
-        <v>64194.242548310591</v>
+        <f t="shared" si="61"/>
+        <v>105283.28780716188</v>
       </c>
       <c r="HL27" s="15">
-        <f t="shared" si="65"/>
-        <v>63552.300122827488</v>
+        <f t="shared" si="61"/>
+        <v>104230.45492909025</v>
       </c>
       <c r="HM27" s="15">
-        <f t="shared" si="65"/>
-        <v>62916.777121599211</v>
+        <f t="shared" si="61"/>
+        <v>103188.15037979935</v>
       </c>
       <c r="HN27" s="15">
-        <f t="shared" si="65"/>
-        <v>62287.609350383216</v>
+        <f t="shared" si="61"/>
+        <v>102156.26887600136</v>
       </c>
       <c r="HO27" s="15">
-        <f t="shared" si="65"/>
-        <v>61664.733256879386</v>
+        <f t="shared" si="61"/>
+        <v>101134.70618724135</v>
       </c>
       <c r="HP27" s="15">
-        <f t="shared" si="65"/>
-        <v>61048.085924310595</v>
+        <f t="shared" si="61"/>
+        <v>100123.35912536894</v>
       </c>
       <c r="HQ27" s="15">
-        <f t="shared" si="65"/>
-        <v>60437.605065067488</v>
+        <f t="shared" si="61"/>
+        <v>99122.125534115243</v>
       </c>
       <c r="HR27" s="15">
-        <f t="shared" si="65"/>
-        <v>59833.229014416815</v>
+        <f t="shared" si="61"/>
+        <v>98130.904278774091</v>
       </c>
       <c r="HS27" s="15">
-        <f t="shared" si="65"/>
-        <v>59234.896724272643</v>
+        <f t="shared" si="61"/>
+        <v>97149.595235986344</v>
       </c>
       <c r="HT27" s="15">
-        <f t="shared" si="65"/>
-        <v>58642.547757029919</v>
+        <f t="shared" si="61"/>
+        <v>96178.099283626478</v>
       </c>
       <c r="HU27" s="15">
-        <f t="shared" si="65"/>
-        <v>58056.122279459618</v>
+        <f t="shared" si="61"/>
+        <v>95216.318290790208</v>
       </c>
       <c r="HV27" s="15">
-        <f t="shared" si="65"/>
-        <v>57475.561056665021</v>
+        <f t="shared" si="61"/>
+        <v>94264.15510788231</v>
       </c>
       <c r="HW27" s="15">
-        <f t="shared" si="65"/>
-        <v>56900.805446098369</v>
+        <f t="shared" si="61"/>
+        <v>93321.513556803489</v>
       </c>
       <c r="HX27" s="15">
-        <f t="shared" si="65"/>
-        <v>56331.797391637389</v>
+        <f t="shared" si="61"/>
+        <v>92388.298421235449</v>
       </c>
       <c r="HY27" s="15">
-        <f t="shared" si="65"/>
-        <v>55768.479417721013</v>
+        <f t="shared" si="61"/>
+        <v>91464.415437023097</v>
       </c>
       <c r="HZ27" s="15">
-        <f t="shared" si="65"/>
-        <v>55210.794623543799</v>
+        <f t="shared" si="61"/>
+        <v>90549.771282652859</v>
       </c>
       <c r="IA27" s="15">
-        <f t="shared" si="65"/>
-        <v>54658.68667730836</v>
+        <f t="shared" si="61"/>
+        <v>89644.273569826328</v>
       </c>
       <c r="IB27" s="15">
-        <f t="shared" si="65"/>
-        <v>54112.099810535277</v>
+        <f t="shared" si="61"/>
+        <v>88747.830834128064</v>
       </c>
       <c r="IC27" s="15">
-        <f t="shared" si="65"/>
-        <v>53570.978812429923</v>
+        <f t="shared" si="61"/>
+        <v>87860.352525786788</v>
       </c>
       <c r="ID27" s="15">
-        <f t="shared" si="65"/>
-        <v>53035.26902430562</v>
+        <f t="shared" si="61"/>
+        <v>86981.749000528915</v>
       </c>
       <c r="IE27" s="15">
-        <f t="shared" si="65"/>
-        <v>52504.916334062567</v>
+        <f t="shared" si="61"/>
+        <v>86111.931510523631</v>
       </c>
       <c r="IF27" s="15">
-        <f t="shared" si="65"/>
-        <v>51979.86717072194</v>
+        <f t="shared" si="61"/>
+        <v>85250.812195418388</v>
       </c>
       <c r="IG27" s="15">
-        <f t="shared" si="65"/>
-        <v>51460.06849901472</v>
+        <f t="shared" si="61"/>
+        <v>84398.304073464198</v>
       </c>
       <c r="IH27" s="15">
-        <f t="shared" si="65"/>
-        <v>50945.467814024574</v>
+        <f t="shared" si="61"/>
+        <v>83554.321032729553</v>
       </c>
       <c r="II27" s="15">
-        <f t="shared" si="65"/>
-        <v>50436.013135884328</v>
+        <f t="shared" si="61"/>
+        <v>82718.777822402262</v>
       </c>
       <c r="IJ27" s="15">
-        <f t="shared" si="65"/>
-        <v>49931.653004525484</v>
+        <f t="shared" si="61"/>
+        <v>81891.590044178243</v>
       </c>
       <c r="IK27" s="15">
-        <f t="shared" si="65"/>
-        <v>49432.336474480231</v>
+        <f t="shared" si="61"/>
+        <v>81072.674143736454</v>
       </c>
       <c r="IL27" s="15">
-        <f t="shared" si="65"/>
-        <v>48938.013109735431</v>
+        <f t="shared" si="61"/>
+        <v>80261.947402299091</v>
       </c>
       <c r="IM27" s="15">
-        <f t="shared" si="65"/>
-        <v>48448.632978638074</v>
+        <f t="shared" si="61"/>
+        <v>79459.327928276092</v>
       </c>
       <c r="IN27" s="15">
-        <f t="shared" si="65"/>
-        <v>47964.146648851696</v>
+        <f t="shared" si="61"/>
+        <v>78664.734648993326</v>
       </c>
       <c r="IO27" s="15">
-        <f t="shared" si="65"/>
-        <v>47484.50518236318</v>
+        <f t="shared" si="61"/>
+        <v>77878.087302503394</v>
       </c>
       <c r="IP27" s="15">
-        <f t="shared" si="65"/>
-        <v>47009.660130539545</v>
+        <f t="shared" si="61"/>
+        <v>77099.306429478354</v>
       </c>
       <c r="IQ27" s="15">
-        <f t="shared" si="65"/>
-        <v>46539.563529234147</v>
+        <f t="shared" si="61"/>
+        <v>76328.313365183567</v>
       </c>
       <c r="IR27" s="15">
-        <f t="shared" si="65"/>
-        <v>46074.167893941805</v>
+        <f t="shared" si="61"/>
+        <v>75565.030231531724</v>
       </c>
     </row>
     <row r="28" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3585,96 +3621,96 @@
         <v>20</v>
       </c>
       <c r="B28" s="35">
-        <f t="shared" ref="B28" si="66">B27/B29</f>
+        <f t="shared" ref="B28" si="62">B27/B29</f>
         <v>1.3723301491896533</v>
       </c>
       <c r="C28" s="35">
-        <f t="shared" ref="C28:D28" si="67">C27/C29</f>
+        <f t="shared" ref="C28:D28" si="63">C27/C29</f>
         <v>1.6660957070977411</v>
       </c>
       <c r="D28" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>2.5521590423257803</v>
       </c>
       <c r="E28" s="35">
-        <f t="shared" ref="E28:I28" si="68">E27/E29</f>
+        <f t="shared" ref="E28:I28" si="64">E27/E29</f>
         <v>3.1245169600686991</v>
       </c>
       <c r="F28" s="35">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>4.3655993258900354</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>7.6971628944851771</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>8.3595317725752505</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>9.9852129542851191</v>
       </c>
-      <c r="J28" s="50">
-        <f t="shared" ref="J28:S28" si="69">J27/J29</f>
-        <v>9.9729331577135341</v>
-      </c>
-      <c r="K28" s="50">
-        <f t="shared" si="69"/>
-        <v>12.282306533546727</v>
-      </c>
-      <c r="L28" s="50">
-        <f t="shared" si="69"/>
-        <v>15.045446407923725</v>
-      </c>
-      <c r="M28" s="50">
-        <f t="shared" si="69"/>
-        <v>18.34777044652272</v>
-      </c>
-      <c r="N28" s="50">
-        <f t="shared" si="69"/>
-        <v>22.290661284172945</v>
-      </c>
-      <c r="O28" s="50">
-        <f t="shared" si="69"/>
-        <v>24.271272165230013</v>
-      </c>
-      <c r="P28" s="50">
-        <f t="shared" si="69"/>
-        <v>26.354970493589018</v>
-      </c>
-      <c r="Q28" s="50">
-        <f t="shared" si="69"/>
-        <v>28.547192937363029</v>
-      </c>
-      <c r="R28" s="50">
-        <f t="shared" si="69"/>
-        <v>30.853648530530645</v>
-      </c>
-      <c r="S28" s="50">
-        <f t="shared" si="69"/>
-        <v>33.280332385612425</v>
-      </c>
-      <c r="T28" s="50">
-        <f t="shared" ref="T28:X28" si="70">T27/T29</f>
-        <v>35.833540091879058</v>
-      </c>
-      <c r="U28" s="50">
-        <f t="shared" si="70"/>
-        <v>38.519882833400189</v>
-      </c>
-      <c r="V28" s="50">
-        <f t="shared" si="70"/>
-        <v>41.346303262958301</v>
-      </c>
-      <c r="W28" s="50">
-        <f t="shared" si="70"/>
-        <v>44.320092169652916</v>
-      </c>
-      <c r="X28" s="50">
-        <f t="shared" si="70"/>
-        <v>47.448905979911778</v>
+      <c r="J28" s="49">
+        <f t="shared" ref="J28:S28" si="65">J27/J29</f>
+        <v>11.359203902798887</v>
+      </c>
+      <c r="K28" s="49">
+        <f t="shared" si="65"/>
+        <v>14.389212094726291</v>
+      </c>
+      <c r="L28" s="49">
+        <f t="shared" si="65"/>
+        <v>18.136740245040212</v>
+      </c>
+      <c r="M28" s="49">
+        <f t="shared" si="65"/>
+        <v>22.767180100885394</v>
+      </c>
+      <c r="N28" s="49">
+        <f t="shared" si="65"/>
+        <v>28.483828265282142</v>
+      </c>
+      <c r="O28" s="49">
+        <f t="shared" si="65"/>
+        <v>32.847180779292785</v>
+      </c>
+      <c r="P28" s="49">
+        <f t="shared" si="65"/>
+        <v>37.649786629065147</v>
+      </c>
+      <c r="Q28" s="49">
+        <f t="shared" si="65"/>
+        <v>42.936077483616053</v>
+      </c>
+      <c r="R28" s="49">
+        <f t="shared" si="65"/>
+        <v>48.754927652006366</v>
+      </c>
+      <c r="S28" s="49">
+        <f t="shared" si="65"/>
+        <v>55.160098521080037</v>
+      </c>
+      <c r="T28" s="49">
+        <f t="shared" ref="T28:X28" si="66">T27/T29</f>
+        <v>59.240283387687661</v>
+      </c>
+      <c r="U28" s="49">
+        <f t="shared" si="66"/>
+        <v>63.534913216593864</v>
+      </c>
+      <c r="V28" s="49">
+        <f t="shared" si="66"/>
+        <v>68.055128489936465</v>
+      </c>
+      <c r="W28" s="49">
+        <f t="shared" si="66"/>
+        <v>72.812629007402535</v>
+      </c>
+      <c r="X28" s="49">
+        <f t="shared" si="66"/>
+        <v>77.819701987425134</v>
       </c>
     </row>
     <row r="29" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3702,72 +3738,72 @@
         <f>'Reports RMB'!M20</f>
         <v>9411</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="46">
         <f>'Reports RMB'!Q20</f>
         <v>9568</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="46">
         <f>'Reports RMB'!U20</f>
         <v>9603</v>
       </c>
-      <c r="J29" s="47">
-        <f t="shared" ref="J29:S29" si="71">I29</f>
+      <c r="J29" s="46">
+        <f t="shared" ref="J29:S29" si="67">I29</f>
         <v>9603</v>
       </c>
-      <c r="K29" s="47">
-        <f t="shared" si="71"/>
+      <c r="K29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="L29" s="47">
-        <f t="shared" si="71"/>
+      <c r="L29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="M29" s="47">
-        <f t="shared" si="71"/>
+      <c r="M29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="N29" s="47">
-        <f t="shared" si="71"/>
+      <c r="N29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="O29" s="47">
-        <f t="shared" si="71"/>
+      <c r="O29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="P29" s="47">
-        <f t="shared" si="71"/>
+      <c r="P29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="Q29" s="47">
-        <f t="shared" si="71"/>
+      <c r="Q29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="R29" s="47">
-        <f t="shared" si="71"/>
+      <c r="R29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="S29" s="47">
-        <f t="shared" si="71"/>
+      <c r="S29" s="46">
+        <f t="shared" si="67"/>
         <v>9603</v>
       </c>
-      <c r="T29" s="47">
-        <f t="shared" ref="T29" si="72">S29</f>
+      <c r="T29" s="46">
+        <f t="shared" ref="T29" si="68">S29</f>
         <v>9603</v>
       </c>
-      <c r="U29" s="47">
-        <f t="shared" ref="U29" si="73">T29</f>
+      <c r="U29" s="46">
+        <f t="shared" ref="U29" si="69">T29</f>
         <v>9603</v>
       </c>
-      <c r="V29" s="47">
-        <f t="shared" ref="V29" si="74">U29</f>
+      <c r="V29" s="46">
+        <f t="shared" ref="V29" si="70">U29</f>
         <v>9603</v>
       </c>
-      <c r="W29" s="47">
-        <f t="shared" ref="W29" si="75">V29</f>
+      <c r="W29" s="46">
+        <f t="shared" ref="W29" si="71">V29</f>
         <v>9603</v>
       </c>
-      <c r="X29" s="47">
-        <f t="shared" ref="X29" si="76">W29</f>
+      <c r="X29" s="46">
+        <f t="shared" ref="X29" si="72">W29</f>
         <v>9603</v>
       </c>
     </row>
@@ -3781,113 +3817,113 @@
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
     </row>
     <row r="31" spans="1:252" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="43"/>
-      <c r="C31" s="52">
-        <f t="shared" ref="C31:X31" si="77">C17/B17-1</f>
+      <c r="C31" s="51">
+        <f t="shared" ref="C31:X31" si="73">C17/B17-1</f>
         <v>0.37691659262296939</v>
       </c>
-      <c r="D31" s="52">
-        <f t="shared" si="77"/>
+      <c r="D31" s="51">
+        <f t="shared" si="73"/>
         <v>0.3058556844317224</v>
       </c>
-      <c r="E31" s="52">
-        <f t="shared" si="77"/>
+      <c r="E31" s="51">
+        <f t="shared" si="73"/>
         <v>0.30335014317934172</v>
       </c>
-      <c r="F31" s="52">
-        <f t="shared" si="77"/>
+      <c r="F31" s="51">
+        <f t="shared" si="73"/>
         <v>0.47709088787999576</v>
       </c>
-      <c r="G31" s="52">
-        <f t="shared" si="77"/>
+      <c r="G31" s="51">
+        <f t="shared" si="73"/>
         <v>0.56484881991338565</v>
       </c>
-      <c r="H31" s="52">
-        <f t="shared" si="77"/>
+      <c r="H31" s="51">
+        <f t="shared" si="73"/>
         <v>0.31516655450874831</v>
       </c>
-      <c r="I31" s="52">
-        <f t="shared" si="77"/>
+      <c r="I31" s="51">
+        <f t="shared" si="73"/>
         <v>0.2065757577695766</v>
       </c>
-      <c r="J31" s="52">
-        <f t="shared" si="77"/>
-        <v>0.16543737029173933</v>
-      </c>
-      <c r="K31" s="52">
-        <f t="shared" si="77"/>
-        <v>0.16598122111853186</v>
-      </c>
-      <c r="L31" s="52">
-        <f t="shared" si="77"/>
-        <v>0.16653972488683721</v>
-      </c>
-      <c r="M31" s="52">
-        <f t="shared" si="77"/>
-        <v>0.16711297276606563</v>
-      </c>
-      <c r="N31" s="52">
-        <f t="shared" si="77"/>
-        <v>0.16770103590069096</v>
-      </c>
-      <c r="O31" s="52">
-        <f t="shared" si="77"/>
+      <c r="J31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.27487191516317711</v>
+      </c>
+      <c r="K31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.20424512076681034</v>
+      </c>
+      <c r="L31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.20515010212265561</v>
+      </c>
+      <c r="M31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.20605142090638751</v>
+      </c>
+      <c r="N31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.20694861033042899</v>
+      </c>
+      <c r="O31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S31" s="51">
+        <f t="shared" si="73"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T31" s="51">
+        <f t="shared" si="73"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P31" s="52">
-        <f t="shared" si="77"/>
+      <c r="U31" s="51">
+        <f t="shared" si="73"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q31" s="52">
-        <f t="shared" si="77"/>
+      <c r="V31" s="51">
+        <f t="shared" si="73"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R31" s="52">
-        <f t="shared" si="77"/>
+      <c r="W31" s="51">
+        <f t="shared" si="73"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S31" s="52">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="T31" s="52">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="U31" s="52">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="V31" s="52">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="W31" s="52">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="X31" s="52">
-        <f t="shared" si="77"/>
+      <c r="X31" s="51">
+        <f t="shared" si="73"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -3896,92 +3932,92 @@
         <v>21</v>
       </c>
       <c r="B32" s="43"/>
-      <c r="C32" s="53">
-        <f t="shared" ref="C32:X32" si="78">C20/B20-1</f>
+      <c r="C32" s="52">
+        <f t="shared" ref="C32:X32" si="74">C20/B20-1</f>
         <v>0.9027731373204142</v>
       </c>
-      <c r="D32" s="53">
-        <f t="shared" si="78"/>
+      <c r="D32" s="52">
+        <f t="shared" si="74"/>
         <v>0.36909569798068476</v>
       </c>
-      <c r="E32" s="53">
-        <f t="shared" si="78"/>
+      <c r="E32" s="52">
+        <f t="shared" si="74"/>
         <v>2.5137873541105638E-2</v>
       </c>
-      <c r="F32" s="53">
-        <f t="shared" si="78"/>
+      <c r="F32" s="52">
+        <f t="shared" si="74"/>
         <v>0.5183285374702864</v>
       </c>
-      <c r="G32" s="53">
-        <f t="shared" si="78"/>
+      <c r="G32" s="52">
+        <f t="shared" si="74"/>
         <v>0.45451549110085687</v>
       </c>
-      <c r="H32" s="53">
-        <f t="shared" si="78"/>
+      <c r="H32" s="52">
+        <f t="shared" si="74"/>
         <v>0.37281894402900528</v>
       </c>
-      <c r="I32" s="53">
-        <f t="shared" si="78"/>
+      <c r="I32" s="52">
+        <f t="shared" si="74"/>
         <v>-0.11707176164734046</v>
       </c>
-      <c r="J32" s="53">
-        <f t="shared" si="78"/>
+      <c r="J32" s="52">
+        <f t="shared" si="74"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K32" s="53">
-        <f t="shared" si="78"/>
+      <c r="K32" s="52">
+        <f t="shared" si="74"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L32" s="53">
-        <f t="shared" si="78"/>
+      <c r="L32" s="52">
+        <f t="shared" si="74"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M32" s="53">
-        <f t="shared" si="78"/>
+      <c r="M32" s="52">
+        <f t="shared" si="74"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N32" s="53">
-        <f t="shared" si="78"/>
+      <c r="N32" s="52">
+        <f t="shared" si="74"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O32" s="53">
-        <f t="shared" si="78"/>
+      <c r="O32" s="52">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P32" s="52">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q32" s="52">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R32" s="52">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S32" s="52">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T32" s="52">
+        <f t="shared" si="74"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P32" s="53">
-        <f t="shared" si="78"/>
+      <c r="U32" s="52">
+        <f t="shared" si="74"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q32" s="53">
-        <f t="shared" si="78"/>
+      <c r="V32" s="52">
+        <f t="shared" si="74"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R32" s="53">
-        <f t="shared" si="78"/>
+      <c r="W32" s="52">
+        <f t="shared" si="74"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S32" s="53">
-        <f t="shared" si="78"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="T32" s="53">
-        <f t="shared" si="78"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="U32" s="53">
-        <f t="shared" si="78"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="V32" s="53">
-        <f t="shared" si="78"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="W32" s="53">
-        <f t="shared" si="78"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="X32" s="53">
-        <f t="shared" si="78"/>
+      <c r="X32" s="52">
+        <f t="shared" si="74"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -3990,187 +4026,187 @@
         <v>36</v>
       </c>
       <c r="B33" s="43"/>
-      <c r="C33" s="53">
-        <f t="shared" ref="C33:X33" si="79">C21/B21-1</f>
+      <c r="C33" s="52">
+        <f t="shared" ref="C33:X33" si="75">C21/B21-1</f>
         <v>0.28628461043142295</v>
       </c>
-      <c r="D33" s="53">
-        <f t="shared" si="79"/>
+      <c r="D33" s="52">
+        <f t="shared" si="75"/>
         <v>0.4172006407689226</v>
       </c>
-      <c r="E33" s="53">
-        <f t="shared" si="79"/>
+      <c r="E33" s="52">
+        <f t="shared" si="75"/>
         <v>0.1886259272341928</v>
       </c>
-      <c r="F33" s="53">
-        <f t="shared" si="79"/>
+      <c r="F33" s="52">
+        <f t="shared" si="75"/>
         <v>0.3348588410104012</v>
       </c>
-      <c r="G33" s="53">
-        <f t="shared" si="79"/>
+      <c r="G33" s="52">
+        <f t="shared" si="75"/>
         <v>0.47161494278462968</v>
       </c>
-      <c r="H33" s="53">
-        <f t="shared" si="79"/>
+      <c r="H33" s="52">
+        <f t="shared" si="75"/>
         <v>0.25630086835496657</v>
       </c>
-      <c r="I33" s="53">
-        <f t="shared" si="79"/>
+      <c r="I33" s="52">
+        <f t="shared" si="75"/>
         <v>0.28717306488126781</v>
       </c>
-      <c r="J33" s="53">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="K33" s="53">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="L33" s="53">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="M33" s="53">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="N33" s="53">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O33" s="53">
-        <f t="shared" si="79"/>
+      <c r="J33" s="52">
+        <f t="shared" si="75"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="K33" s="52">
+        <f t="shared" si="75"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="L33" s="52">
+        <f t="shared" si="75"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M33" s="52">
+        <f t="shared" si="75"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="N33" s="52">
+        <f t="shared" si="75"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="O33" s="52">
+        <f t="shared" si="75"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P33" s="53">
-        <f t="shared" si="79"/>
+      <c r="P33" s="52">
+        <f t="shared" si="75"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="Q33" s="52">
+        <f t="shared" si="75"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="R33" s="52">
+        <f t="shared" si="75"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="S33" s="52">
+        <f t="shared" si="75"/>
         <v>-1.9999999999999907E-2</v>
       </c>
-      <c r="Q33" s="53">
-        <f t="shared" si="79"/>
+      <c r="T33" s="52">
+        <f t="shared" si="75"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="R33" s="53">
-        <f t="shared" si="79"/>
+      <c r="U33" s="52">
+        <f t="shared" si="75"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="S33" s="53">
-        <f t="shared" si="79"/>
+      <c r="V33" s="52">
+        <f t="shared" si="75"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="T33" s="53">
-        <f t="shared" si="79"/>
+      <c r="W33" s="52">
+        <f t="shared" si="75"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="U33" s="53">
-        <f t="shared" si="79"/>
+      <c r="X33" s="52">
+        <f t="shared" si="75"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="V33" s="53">
-        <f t="shared" si="79"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="W33" s="53">
-        <f t="shared" si="79"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="X33" s="53">
-        <f t="shared" si="79"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="55">
-        <f t="shared" ref="C34:X34" si="80">C22/B22-1</f>
+      <c r="B34" s="25"/>
+      <c r="C34" s="52">
+        <f t="shared" ref="C34:X34" si="76">C22/B22-1</f>
         <v>0.45779884736939946</v>
       </c>
-      <c r="D34" s="55">
-        <f t="shared" si="80"/>
+      <c r="D34" s="52">
+        <f t="shared" si="76"/>
         <v>0.39973219409551741</v>
       </c>
-      <c r="E34" s="55">
-        <f t="shared" si="80"/>
+      <c r="E34" s="52">
+        <f t="shared" si="76"/>
         <v>0.13055758017492702</v>
       </c>
-      <c r="F34" s="55">
-        <f t="shared" si="80"/>
+      <c r="F34" s="52">
+        <f t="shared" si="76"/>
         <v>0.39394794101055686</v>
       </c>
-      <c r="G34" s="55">
-        <f t="shared" si="80"/>
+      <c r="G34" s="52">
+        <f t="shared" si="76"/>
         <v>0.46561641855759506</v>
       </c>
-      <c r="H34" s="55">
-        <f t="shared" si="80"/>
+      <c r="H34" s="52">
+        <f t="shared" si="76"/>
         <v>0.29686606315208164</v>
       </c>
-      <c r="I34" s="55">
-        <f t="shared" si="80"/>
+      <c r="I34" s="52">
+        <f t="shared" si="76"/>
         <v>0.13819481408257928</v>
       </c>
-      <c r="J34" s="55">
-        <f t="shared" si="80"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="K34" s="55">
-        <f t="shared" si="80"/>
-        <v>9.9999999999999867E-2</v>
-      </c>
-      <c r="L34" s="55">
-        <f t="shared" si="80"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="M34" s="55">
-        <f t="shared" si="80"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="N34" s="55">
-        <f t="shared" si="80"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O34" s="55">
-        <f t="shared" si="80"/>
-        <v>1.1758103738435111E-5</v>
-      </c>
-      <c r="P34" s="55">
-        <f t="shared" si="80"/>
-        <v>1.0120989464865726E-3</v>
-      </c>
-      <c r="Q34" s="55">
-        <f t="shared" si="80"/>
-        <v>2.0403968313973397E-3</v>
-      </c>
-      <c r="R34" s="55">
-        <f t="shared" si="80"/>
-        <v>3.0952931100853842E-3</v>
-      </c>
-      <c r="S34" s="55">
-        <f t="shared" si="80"/>
-        <v>4.1752283478497798E-3</v>
-      </c>
-      <c r="T34" s="55">
-        <f t="shared" si="80"/>
-        <v>5.2784464789137342E-3</v>
-      </c>
-      <c r="U34" s="55">
-        <f t="shared" si="80"/>
-        <v>6.4030019700778151E-3</v>
-      </c>
-      <c r="V34" s="55">
-        <f t="shared" si="80"/>
-        <v>7.5467700457096942E-3</v>
-      </c>
-      <c r="W34" s="55">
-        <f t="shared" si="80"/>
-        <v>8.7074599491623328E-3</v>
-      </c>
-      <c r="X34" s="55">
-        <f t="shared" si="80"/>
-        <v>9.8826311328557015E-3</v>
+      <c r="J34" s="52">
+        <f t="shared" si="76"/>
+        <v>0.13570588706875819</v>
+      </c>
+      <c r="K34" s="52">
+        <f t="shared" si="76"/>
+        <v>0.13615528509326635</v>
+      </c>
+      <c r="L34" s="52">
+        <f t="shared" si="76"/>
+        <v>0.13659585833273047</v>
+      </c>
+      <c r="M34" s="52">
+        <f t="shared" si="76"/>
+        <v>0.13702744187751548</v>
+      </c>
+      <c r="N34" s="52">
+        <f t="shared" si="76"/>
+        <v>0.13744989486694381</v>
+      </c>
+      <c r="O34" s="52">
+        <f t="shared" si="76"/>
+        <v>9.1285600366108888E-3</v>
+      </c>
+      <c r="P34" s="52">
+        <f t="shared" si="76"/>
+        <v>1.1751569927928029E-2</v>
+      </c>
+      <c r="Q34" s="52">
+        <f t="shared" si="76"/>
+        <v>1.4521050383157874E-2</v>
+      </c>
+      <c r="R34" s="52">
+        <f t="shared" si="76"/>
+        <v>1.7429637765655093E-2</v>
+      </c>
+      <c r="S34" s="52">
+        <f t="shared" si="76"/>
+        <v>2.0467271655894237E-2</v>
+      </c>
+      <c r="T34" s="52">
+        <f t="shared" si="76"/>
+        <v>5.4456953532637797E-3</v>
+      </c>
+      <c r="U34" s="52">
+        <f t="shared" si="76"/>
+        <v>6.5732701869487542E-3</v>
+      </c>
+      <c r="V34" s="52">
+        <f t="shared" si="76"/>
+        <v>7.7197244579265689E-3</v>
+      </c>
+      <c r="W34" s="52">
+        <f t="shared" si="76"/>
+        <v>8.8827438566603245E-3</v>
+      </c>
+      <c r="X34" s="52">
+        <f t="shared" si="76"/>
+        <v>1.0059866951002583E-2</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.15">
@@ -4180,119 +4216,119 @@
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="30">
-        <f t="shared" ref="B36:X36" si="81">B19/B17</f>
+        <f t="shared" ref="B36:X36" si="77">B19/B17</f>
         <v>0.5851958171006767</v>
       </c>
       <c r="C36" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>0.54038089249962773</v>
       </c>
       <c r="D36" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>0.60881629963761685</v>
       </c>
       <c r="E36" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>0.59527721338090467</v>
       </c>
       <c r="F36" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>0.55614132080190604</v>
       </c>
       <c r="G36" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>0.49177742261103635</v>
       </c>
-      <c r="H36" s="53">
-        <f t="shared" si="81"/>
+      <c r="H36" s="52">
+        <f t="shared" si="77"/>
         <v>0.45450184525446602</v>
       </c>
-      <c r="I36" s="53">
-        <f t="shared" si="81"/>
+      <c r="I36" s="52">
+        <f t="shared" si="77"/>
         <v>0.4440442207432499</v>
       </c>
-      <c r="J36" s="53">
-        <f t="shared" si="81"/>
+      <c r="J36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="K36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="L36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="M36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="N36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="O36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="P36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="Q36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="R36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="S36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="T36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="U36" s="52">
+        <f t="shared" si="77"/>
+        <v>0.4440442207432499</v>
+      </c>
+      <c r="V36" s="52">
+        <f t="shared" si="77"/>
         <v>0.44404422074324995</v>
       </c>
-      <c r="K36" s="53">
-        <f t="shared" si="81"/>
+      <c r="W36" s="52">
+        <f t="shared" si="77"/>
         <v>0.44404422074324995</v>
       </c>
-      <c r="L36" s="53">
-        <f t="shared" si="81"/>
+      <c r="X36" s="52">
+        <f t="shared" si="77"/>
         <v>0.44404422074324995</v>
-      </c>
-      <c r="M36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074324995</v>
-      </c>
-      <c r="N36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074324995</v>
-      </c>
-      <c r="O36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325001</v>
-      </c>
-      <c r="P36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325001</v>
-      </c>
-      <c r="Q36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325001</v>
-      </c>
-      <c r="R36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325001</v>
-      </c>
-      <c r="S36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325001</v>
-      </c>
-      <c r="T36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325001</v>
-      </c>
-      <c r="U36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325001</v>
-      </c>
-      <c r="V36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325006</v>
-      </c>
-      <c r="W36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325012</v>
-      </c>
-      <c r="X36" s="53">
-        <f t="shared" si="81"/>
-        <v>0.44404422074325017</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.15">
@@ -4300,96 +4336,96 @@
         <v>23</v>
       </c>
       <c r="B37" s="30">
-        <f t="shared" ref="B37:X37" si="82">B23/B17</f>
+        <f t="shared" ref="B37:X37" si="78">B23/B17</f>
         <v>0.34009978812111269</v>
       </c>
       <c r="C37" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>0.28088753578106129</v>
       </c>
       <c r="D37" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>0.33066825473252071</v>
       </c>
       <c r="E37" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>0.35400484139097632</v>
       </c>
       <c r="F37" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>0.32844976240308549</v>
       </c>
       <c r="G37" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>0.27852456258411845</v>
       </c>
-      <c r="H37" s="53">
-        <f t="shared" si="82"/>
+      <c r="H37" s="52">
+        <f t="shared" si="78"/>
         <v>0.24421639046479945</v>
       </c>
-      <c r="I37" s="53">
-        <f t="shared" si="82"/>
+      <c r="I37" s="52">
+        <f t="shared" si="78"/>
         <v>0.24567639130745927</v>
       </c>
-      <c r="J37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.25681441505686853</v>
-      </c>
-      <c r="K37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.26740948381545626</v>
-      </c>
-      <c r="L37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.2774847744805678</v>
-      </c>
-      <c r="M37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.28706251017693812</v>
-      </c>
-      <c r="N37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.29616400456295972</v>
-      </c>
-      <c r="O37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.30320426362780906</v>
-      </c>
-      <c r="P37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.30977517208833516</v>
-      </c>
-      <c r="Q37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.31590801998482609</v>
-      </c>
-      <c r="R37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.32163201135488428</v>
-      </c>
-      <c r="S37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.326974403300272</v>
-      </c>
-      <c r="T37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.33196063578263385</v>
-      </c>
-      <c r="U37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.33661445276617158</v>
-      </c>
-      <c r="V37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.34095801528414016</v>
-      </c>
-      <c r="W37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.3450120069675775</v>
-      </c>
-      <c r="X37" s="53">
-        <f t="shared" si="82"/>
-        <v>0.34879573253878576</v>
+      <c r="J37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.26733038069725357</v>
+      </c>
+      <c r="K37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.27732204777771569</v>
+      </c>
+      <c r="L37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.28680593901295209</v>
+      </c>
+      <c r="M37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.29580490180388463</v>
+      </c>
+      <c r="N37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.30434084290302332</v>
+      </c>
+      <c r="O37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.31588179482310585</v>
+      </c>
+      <c r="P37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.32616373380645214</v>
+      </c>
+      <c r="Q37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.33532400671888796</v>
+      </c>
+      <c r="R37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.34348497713178527</v>
+      </c>
+      <c r="S37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.35075565986327562</v>
+      </c>
+      <c r="T37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.35471414268375373</v>
+      </c>
+      <c r="U37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.35840872664953322</v>
+      </c>
+      <c r="V37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.36185700501759416</v>
+      </c>
+      <c r="W37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.36507539816111773</v>
+      </c>
+      <c r="X37" s="52">
+        <f t="shared" si="78"/>
+        <v>0.36807923176173962</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.15">
@@ -4397,95 +4433,95 @@
         <v>24</v>
       </c>
       <c r="B38" s="30">
-        <f t="shared" ref="B38:X38" si="83">B26/B25</f>
+        <f t="shared" ref="B38:X38" si="79">B26/B25</f>
         <v>0.15054477810257774</v>
       </c>
       <c r="C38" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.1928323219750013</v>
       </c>
       <c r="D38" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.17670585801468813</v>
       </c>
       <c r="E38" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.19626684338413961</v>
       </c>
       <c r="F38" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.19738574748257165</v>
       </c>
       <c r="G38" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.17853983806218957</v>
       </c>
-      <c r="H38" s="53">
-        <f t="shared" si="83"/>
+      <c r="H38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15330383418372748</v>
       </c>
-      <c r="I38" s="53">
-        <f t="shared" si="83"/>
+      <c r="I38" s="52">
+        <f t="shared" si="79"/>
         <v>0.12351005484460695</v>
       </c>
-      <c r="J38" s="53">
-        <f t="shared" si="83"/>
+      <c r="J38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="K38" s="53">
-        <f t="shared" si="83"/>
+      <c r="K38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="L38" s="53">
-        <f t="shared" si="83"/>
+      <c r="L38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="M38" s="53">
-        <f t="shared" si="83"/>
+      <c r="M38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="N38" s="53">
-        <f t="shared" si="83"/>
+      <c r="N38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="O38" s="53">
-        <f t="shared" si="83"/>
+      <c r="O38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="P38" s="53">
-        <f t="shared" si="83"/>
+      <c r="P38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="Q38" s="53">
-        <f t="shared" si="83"/>
+      <c r="Q38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="R38" s="53">
-        <f t="shared" si="83"/>
+      <c r="R38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="S38" s="53">
-        <f t="shared" si="83"/>
+      <c r="S38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="T38" s="53">
-        <f t="shared" si="83"/>
+      <c r="T38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="U38" s="53">
-        <f t="shared" si="83"/>
+      <c r="U38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="V38" s="53">
-        <f t="shared" si="83"/>
+      <c r="V38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="W38" s="53">
-        <f t="shared" si="83"/>
+      <c r="W38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
-      <c r="X38" s="53">
-        <f t="shared" si="83"/>
+      <c r="X38" s="52">
+        <f t="shared" si="79"/>
         <v>0.15</v>
       </c>
     </row>
@@ -4496,23 +4532,23 @@
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
     </row>
     <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -4538,65 +4574,65 @@
         <f>I41-I42</f>
         <v>-12617</v>
       </c>
-      <c r="J40" s="49">
-        <f t="shared" ref="J40:X40" si="84">I40+J27</f>
-        <v>83153.077113523075</v>
-      </c>
-      <c r="K40" s="49">
-        <f t="shared" si="84"/>
-        <v>201100.06675517227</v>
-      </c>
-      <c r="L40" s="49">
-        <f t="shared" si="84"/>
-        <v>345581.4886104638</v>
-      </c>
-      <c r="M40" s="49">
-        <f t="shared" si="84"/>
-        <v>521775.12820842152</v>
-      </c>
-      <c r="N40" s="49">
-        <f t="shared" si="84"/>
-        <v>735832.34852033434</v>
-      </c>
-      <c r="O40" s="49">
-        <f t="shared" si="84"/>
-        <v>968909.37512303819</v>
-      </c>
-      <c r="P40" s="49">
-        <f t="shared" si="84"/>
-        <v>1221996.1567729735</v>
-      </c>
-      <c r="Q40" s="49">
-        <f t="shared" si="84"/>
-        <v>1496134.8505504706</v>
-      </c>
-      <c r="R40" s="49">
-        <f t="shared" si="84"/>
-        <v>1792422.4373891563</v>
-      </c>
-      <c r="S40" s="49">
-        <f t="shared" si="84"/>
-        <v>2112013.4692881927</v>
-      </c>
-      <c r="T40" s="49">
-        <f t="shared" si="84"/>
-        <v>2456122.9547905074</v>
-      </c>
-      <c r="U40" s="49">
-        <f t="shared" si="84"/>
-        <v>2826029.3896396495</v>
-      </c>
-      <c r="V40" s="49">
-        <f t="shared" si="84"/>
-        <v>3223077.9398738379</v>
-      </c>
-      <c r="W40" s="49">
-        <f t="shared" si="84"/>
-        <v>3648683.7849790147</v>
-      </c>
-      <c r="X40" s="49">
-        <f t="shared" si="84"/>
-        <v>4104335.6291041076</v>
+      <c r="J40" s="48">
+        <f>I40+J27</f>
+        <v>96465.435078577706</v>
+      </c>
+      <c r="K40" s="48">
+        <f t="shared" ref="J40:X40" si="80">J40+K27</f>
+        <v>234645.03882423427</v>
+      </c>
+      <c r="L40" s="48">
+        <f t="shared" si="80"/>
+        <v>408812.15539735544</v>
+      </c>
+      <c r="M40" s="48">
+        <f t="shared" si="80"/>
+        <v>627445.3859061579</v>
+      </c>
+      <c r="N40" s="48">
+        <f t="shared" si="80"/>
+        <v>900975.5887376623</v>
+      </c>
+      <c r="O40" s="48">
+        <f t="shared" si="80"/>
+        <v>1216407.0657612109</v>
+      </c>
+      <c r="P40" s="48">
+        <f t="shared" si="80"/>
+        <v>1577957.9667601236</v>
+      </c>
+      <c r="Q40" s="48">
+        <f t="shared" si="80"/>
+        <v>1990273.1188352886</v>
+      </c>
+      <c r="R40" s="48">
+        <f t="shared" si="80"/>
+        <v>2458466.6890775058</v>
+      </c>
+      <c r="S40" s="48">
+        <f t="shared" si="80"/>
+        <v>2988169.1151754372</v>
+      </c>
+      <c r="T40" s="48">
+        <f t="shared" si="80"/>
+        <v>3557053.5565474019</v>
+      </c>
+      <c r="U40" s="48">
+        <f t="shared" si="80"/>
+        <v>4167179.3281663526</v>
+      </c>
+      <c r="V40" s="48">
+        <f t="shared" si="80"/>
+        <v>4820712.7270552125</v>
+      </c>
+      <c r="W40" s="48">
+        <f t="shared" si="80"/>
+        <v>5519932.4034132995</v>
+      </c>
+      <c r="X40" s="48">
+        <f t="shared" si="80"/>
+        <v>6267235.0015985426</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.15">
@@ -4615,29 +4651,29 @@
         <f>'Reports RMB'!M31</f>
         <v>149392</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="46">
         <f>'Reports RMB'!Q31</f>
         <v>169497</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="46">
         <f>'Reports RMB'!U31</f>
         <v>208196</v>
       </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -4655,29 +4691,29 @@
         <f>'Reports RMB'!M32</f>
         <v>131905</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="46">
         <f>'Reports RMB'!Q32</f>
         <v>179289</v>
       </c>
-      <c r="I42" s="47">
+      <c r="I42" s="46">
         <f>'Reports RMB'!U32</f>
         <v>220813</v>
       </c>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
     </row>
     <row r="43" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
@@ -4686,63 +4722,63 @@
       <c r="B43" s="25"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="56">
+      <c r="E43" s="53"/>
+      <c r="F43" s="54">
         <f>F24/F41</f>
         <v>1.3521618232375552E-2</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="54">
         <f>G24/G41</f>
         <v>0.1469958230695084</v>
       </c>
-      <c r="H43" s="56">
+      <c r="H43" s="54">
         <f>H24/H41</f>
         <v>0.1067924506038455</v>
       </c>
-      <c r="I43" s="56">
+      <c r="I43" s="54">
         <f>I24/I41</f>
         <v>8.0256104824300178E-2</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
     </row>
     <row r="44" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="25"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
@@ -4760,29 +4796,29 @@
         <f>'Reports RMB'!M34</f>
         <v>40266</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="46">
         <f>'Reports RMB'!Q34</f>
         <v>56650</v>
       </c>
-      <c r="I45" s="47">
+      <c r="I45" s="46">
         <f>'Reports RMB'!U34</f>
         <v>128860</v>
       </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
@@ -4800,29 +4836,29 @@
         <f>'Reports RMB'!M35</f>
         <v>554672</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="46">
         <f>'Reports RMB'!Q35</f>
         <v>723521</v>
       </c>
-      <c r="I46" s="47">
+      <c r="I46" s="46">
         <f>'Reports RMB'!U35</f>
         <v>953986</v>
       </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="47"/>
-      <c r="X46" s="47"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
@@ -4840,29 +4876,29 @@
         <f>'Reports RMB'!M36</f>
         <v>277579</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="46">
         <f>'Reports RMB'!Q36</f>
         <v>367314</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="46">
         <f>'Reports RMB'!U36</f>
         <v>465162</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B48" s="25"/>
@@ -4871,23 +4907,23 @@
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="48"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
@@ -4913,21 +4949,21 @@
         <f>I46-I45-I41</f>
         <v>616930</v>
       </c>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
@@ -4953,21 +4989,21 @@
         <f>I46-I47</f>
         <v>488824</v>
       </c>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B51" s="25"/>
@@ -4976,23 +5012,23 @@
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
@@ -5018,21 +5054,21 @@
         <f>I27/I50</f>
         <v>0.19616058131351979</v>
       </c>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
@@ -5058,21 +5094,21 @@
         <f>I27/I46</f>
         <v>0.10051300543194554</v>
       </c>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
-      <c r="V53" s="53"/>
-      <c r="W53" s="53"/>
-      <c r="X53" s="53"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
@@ -5098,21 +5134,21 @@
         <f>I27/(I50-I45)</f>
         <v>0.26638219377493305</v>
       </c>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
@@ -5138,21 +5174,21 @@
         <f>I27/I49</f>
         <v>0.15542768223299239</v>
       </c>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B56" s="25"/>
@@ -5161,8 +5197,8 @@
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
@@ -5185,52 +5221,52 @@
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="30">
-        <f t="shared" ref="C57:N57" si="85">C12/B12-1</f>
+        <f t="shared" ref="C57:N57" si="81">C12/B12-1</f>
         <v>0.2594490173022006</v>
       </c>
       <c r="D57" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0.40735800822496393</v>
       </c>
       <c r="E57" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0.27419049123361239</v>
       </c>
       <c r="F57" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0.33644894569165351</v>
       </c>
       <c r="G57" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0.42828123550691033</v>
       </c>
       <c r="H57" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0.14717858464895484</v>
       </c>
       <c r="I57" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0.13215696930584331</v>
       </c>
       <c r="J57" s="30">
-        <f t="shared" si="85"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="81"/>
+        <v>0.33930426869209107</v>
       </c>
       <c r="K57" s="30">
-        <f t="shared" si="85"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="81"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L57" s="30">
-        <f t="shared" si="85"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="81"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="M57" s="30">
-        <f t="shared" si="85"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="81"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="N57" s="30">
-        <f t="shared" si="85"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="81"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
@@ -5255,28 +5291,28 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30">
-        <f t="shared" ref="I58:N60" si="86">I13/H13-1</f>
+        <f t="shared" ref="I58:N60" si="82">I13/H13-1</f>
         <v>0.38580491673275175</v>
       </c>
       <c r="J58" s="30">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="82"/>
+        <v>0.25294262739874696</v>
       </c>
       <c r="K58" s="30">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="82"/>
+        <v>0.25</v>
       </c>
       <c r="L58" s="30">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="82"/>
+        <v>0.25</v>
       </c>
       <c r="M58" s="30">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="82"/>
+        <v>0.25</v>
       </c>
       <c r="N58" s="30">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="82"/>
+        <v>0.25</v>
       </c>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
@@ -5295,51 +5331,51 @@
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="30">
-        <f t="shared" ref="C59:H60" si="87">C14/B14-1</f>
+        <f t="shared" ref="C59:H60" si="83">C14/B14-1</f>
         <v>0.48846836191602594</v>
       </c>
       <c r="D59" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>0.65037743345252275</v>
       </c>
       <c r="E59" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>1.1025517573423205</v>
       </c>
       <c r="F59" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>0.5439661094572934</v>
       </c>
       <c r="G59" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>0.49940674823878384</v>
       </c>
       <c r="H59" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>0.43621256707633727</v>
       </c>
       <c r="I59" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>0.17731021539627068</v>
       </c>
       <c r="J59" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
+        <v>0.18277710341196607</v>
+      </c>
+      <c r="K59" s="30">
+        <f t="shared" si="82"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="K59" s="30">
-        <f t="shared" si="86"/>
+      <c r="L59" s="30">
+        <f t="shared" si="82"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="L59" s="30">
-        <f t="shared" si="86"/>
+      <c r="M59" s="30">
+        <f t="shared" si="82"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M59" s="30">
-        <f t="shared" si="86"/>
-        <v>0.14999999999999991</v>
-      </c>
       <c r="N59" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="O59" s="30"/>
@@ -5359,52 +5395,52 @@
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>1.1735864802837472</v>
       </c>
       <c r="D60" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>-0.2989057400652716</v>
       </c>
       <c r="E60" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>-0.3529572836801752</v>
       </c>
       <c r="F60" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>2.6305543800253917</v>
       </c>
       <c r="G60" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>1.5258188600069937</v>
       </c>
       <c r="H60" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>-0.88852738935806919</v>
       </c>
       <c r="I60" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>0.56613537569861316</v>
       </c>
       <c r="J60" s="30">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f t="shared" si="82"/>
+        <v>-0.30219402590536604</v>
       </c>
       <c r="K60" s="30">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f t="shared" si="82"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="L60" s="30">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f t="shared" si="82"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="M60" s="30">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f t="shared" si="82"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="N60" s="30">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f t="shared" si="82"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
@@ -5422,145 +5458,145 @@
       <c r="B61" s="25"/>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="44">
         <v>6.2313000000000001</v>
       </c>
-      <c r="C62" s="45">
+      <c r="C62" s="44">
         <v>6.0537000000000001</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="44">
         <v>6.2046000000000001</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="44">
         <v>6.4920999999999998</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="44">
         <v>6.95</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="44">
         <v>6.51</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="44">
         <v>6.88</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="44">
         <v>6.96</v>
       </c>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
     </row>
     <row r="63" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="28">
-        <f t="shared" ref="B63:I63" si="88">B17/B62</f>
+        <f t="shared" ref="B63:I63" si="84">B17/B62</f>
         <v>7043.9555149005828</v>
       </c>
       <c r="C63" s="28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>9983.481176800964</v>
       </c>
       <c r="D63" s="28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>12719.917480578924</v>
       </c>
       <c r="E63" s="28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>15844.333882718998</v>
       </c>
       <c r="F63" s="28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>21861.582733812949</v>
       </c>
       <c r="G63" s="28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>36522.273425499232</v>
       </c>
       <c r="H63" s="28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>45449.70930232558</v>
       </c>
       <c r="I63" s="28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>54208.189655172413</v>
       </c>
-      <c r="J63" s="49">
-        <f t="shared" ref="J63:X63" si="89">J17/$C$9</f>
-        <v>61930.52112676057</v>
-      </c>
-      <c r="K63" s="49">
-        <f t="shared" si="89"/>
-        <v>72209.824647887319</v>
-      </c>
-      <c r="L63" s="49">
-        <f t="shared" si="89"/>
-        <v>84235.628978873225</v>
-      </c>
-      <c r="M63" s="49">
-        <f t="shared" si="89"/>
-        <v>98312.495350352081</v>
-      </c>
-      <c r="N63" s="49">
-        <f t="shared" si="89"/>
-        <v>114799.60266258799</v>
-      </c>
-      <c r="O63" s="49">
-        <f t="shared" si="89"/>
-        <v>120539.58279571739</v>
-      </c>
-      <c r="P63" s="49">
-        <f t="shared" si="89"/>
-        <v>126566.56193550327</v>
-      </c>
-      <c r="Q63" s="49">
-        <f t="shared" si="89"/>
-        <v>132894.89003227843</v>
-      </c>
-      <c r="R63" s="49">
-        <f t="shared" si="89"/>
-        <v>139539.63453389236</v>
-      </c>
-      <c r="S63" s="49">
-        <f t="shared" si="89"/>
-        <v>146516.61626058698</v>
-      </c>
-      <c r="T63" s="49">
-        <f t="shared" si="89"/>
-        <v>153842.44707361635</v>
-      </c>
-      <c r="U63" s="49">
-        <f t="shared" si="89"/>
-        <v>161534.56942729719</v>
-      </c>
-      <c r="V63" s="49">
-        <f t="shared" si="89"/>
-        <v>169611.29789866207</v>
-      </c>
-      <c r="W63" s="49">
-        <f t="shared" si="89"/>
-        <v>178091.86279359518</v>
-      </c>
-      <c r="X63" s="49">
-        <f t="shared" si="89"/>
-        <v>186996.45593327493</v>
+      <c r="J63" s="48">
+        <f>J17/$C$9</f>
+        <v>69507.969653179185</v>
+      </c>
+      <c r="K63" s="48">
+        <f t="shared" ref="J63:X63" si="85">K17/$C$9</f>
+        <v>83704.633309248558</v>
+      </c>
+      <c r="L63" s="48">
+        <f t="shared" si="85"/>
+        <v>100876.64738078033</v>
+      </c>
+      <c r="M63" s="48">
+        <f t="shared" si="85"/>
+        <v>121662.42390986273</v>
+      </c>
+      <c r="N63" s="48">
+        <f t="shared" si="85"/>
+        <v>146840.29346744038</v>
+      </c>
+      <c r="O63" s="48">
+        <f t="shared" si="85"/>
+        <v>161524.32281418442</v>
+      </c>
+      <c r="P63" s="48">
+        <f t="shared" si="85"/>
+        <v>177676.75509560289</v>
+      </c>
+      <c r="Q63" s="48">
+        <f t="shared" si="85"/>
+        <v>195444.43060516319</v>
+      </c>
+      <c r="R63" s="48">
+        <f t="shared" si="85"/>
+        <v>214988.87366567954</v>
+      </c>
+      <c r="S63" s="48">
+        <f t="shared" si="85"/>
+        <v>236487.76103224751</v>
+      </c>
+      <c r="T63" s="48">
+        <f t="shared" si="85"/>
+        <v>248312.14908385987</v>
+      </c>
+      <c r="U63" s="48">
+        <f t="shared" si="85"/>
+        <v>260727.75653805287</v>
+      </c>
+      <c r="V63" s="48">
+        <f t="shared" si="85"/>
+        <v>273764.14436495554</v>
+      </c>
+      <c r="W63" s="48">
+        <f t="shared" si="85"/>
+        <v>287452.3515832033</v>
+      </c>
+      <c r="X63" s="48">
+        <f t="shared" si="85"/>
+        <v>301824.9691623635</v>
       </c>
     </row>
     <row r="64" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5568,96 +5604,96 @@
         <v>65</v>
       </c>
       <c r="B64" s="28">
-        <f t="shared" ref="B64:I64" si="90">B27/B62</f>
+        <f t="shared" ref="B64:I64" si="86">B27/B62</f>
         <v>2051.8992826536996</v>
       </c>
       <c r="C64" s="28">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>2570.8244544658637</v>
       </c>
       <c r="D64" s="28">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>3848.4350320729782</v>
       </c>
       <c r="E64" s="28">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>4483.6031484419527</v>
       </c>
       <c r="F64" s="28">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>5963.5971223021579</v>
       </c>
       <c r="G64" s="28">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>11127.188940092166</v>
       </c>
       <c r="H64" s="28">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>11625.581395348838</v>
       </c>
       <c r="I64" s="28">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>13777.011494252874</v>
       </c>
-      <c r="J64" s="49">
-        <f t="shared" ref="J64:X64" si="91">J27/$C$9</f>
-        <v>13488.743255425787</v>
-      </c>
-      <c r="K64" s="49">
-        <f t="shared" si="91"/>
-        <v>16612.252062204116</v>
-      </c>
-      <c r="L64" s="49">
-        <f t="shared" si="91"/>
-        <v>20349.496035956556</v>
-      </c>
-      <c r="M64" s="49">
-        <f t="shared" si="91"/>
-        <v>24816.00557717714</v>
-      </c>
-      <c r="N64" s="49">
-        <f t="shared" si="91"/>
-        <v>30148.904269283496</v>
-      </c>
-      <c r="O64" s="49">
-        <f t="shared" si="91"/>
-        <v>32827.750225732932</v>
-      </c>
-      <c r="P64" s="49">
-        <f t="shared" si="91"/>
-        <v>35646.02558449794</v>
-      </c>
-      <c r="Q64" s="49">
-        <f t="shared" si="91"/>
-        <v>38611.083630633402</v>
-      </c>
-      <c r="R64" s="49">
-        <f t="shared" si="91"/>
-        <v>41730.646033617719</v>
-      </c>
-      <c r="S64" s="49">
-        <f t="shared" si="91"/>
-        <v>45012.821394230443</v>
-      </c>
-      <c r="T64" s="49">
-        <f t="shared" si="91"/>
-        <v>48466.12471863586</v>
-      </c>
-      <c r="U64" s="49">
-        <f t="shared" si="91"/>
-        <v>52099.497866076337</v>
-      </c>
-      <c r="V64" s="49">
-        <f t="shared" si="91"/>
-        <v>55922.3310188998</v>
-      </c>
-      <c r="W64" s="49">
-        <f t="shared" si="91"/>
-        <v>59944.485226081262</v>
-      </c>
-      <c r="X64" s="49">
-        <f t="shared" si="91"/>
-        <v>64176.316073956732</v>
+      <c r="J64" s="48">
+        <f>J27/$C$9</f>
+        <v>15763.357670314697</v>
+      </c>
+      <c r="K64" s="48">
+        <f t="shared" ref="J64:X64" si="87">K27/$C$9</f>
+        <v>19968.150830297192</v>
+      </c>
+      <c r="L64" s="48">
+        <f t="shared" si="87"/>
+        <v>25168.658464323868</v>
+      </c>
+      <c r="M64" s="48">
+        <f t="shared" si="87"/>
+        <v>31594.397472370292</v>
+      </c>
+      <c r="N64" s="48">
+        <f t="shared" si="87"/>
+        <v>39527.485958309888</v>
+      </c>
+      <c r="O64" s="48">
+        <f t="shared" si="87"/>
+        <v>45582.583384905869</v>
+      </c>
+      <c r="P64" s="48">
+        <f t="shared" si="87"/>
+        <v>52247.2400287446</v>
+      </c>
+      <c r="Q64" s="48">
+        <f t="shared" si="87"/>
+        <v>59583.114461729041</v>
+      </c>
+      <c r="R64" s="48">
+        <f t="shared" si="87"/>
+        <v>67658.030381823279</v>
+      </c>
+      <c r="S64" s="48">
+        <f t="shared" si="87"/>
+        <v>76546.593366753121</v>
+      </c>
+      <c r="T64" s="48">
+        <f t="shared" si="87"/>
+        <v>82208.734302307028</v>
+      </c>
+      <c r="U64" s="48">
+        <f t="shared" si="87"/>
+        <v>88168.464106784813</v>
+      </c>
+      <c r="V64" s="48">
+        <f t="shared" si="87"/>
+        <v>94441.242613997092</v>
+      </c>
+      <c r="W64" s="48">
+        <f t="shared" si="87"/>
+        <v>101043.30583209344</v>
+      </c>
+      <c r="X64" s="48">
+        <f t="shared" si="87"/>
+        <v>107991.7049400641</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.15">
@@ -5668,49 +5704,49 @@
         <v>97</v>
       </c>
       <c r="B66" s="25"/>
-      <c r="C66" s="52">
-        <f t="shared" ref="C66:I66" si="92">C63/B63-1</f>
+      <c r="C66" s="51">
+        <f t="shared" ref="C66:I66" si="88">C63/B63-1</f>
         <v>0.41731178677693137</v>
       </c>
-      <c r="D66" s="52">
-        <f t="shared" si="92"/>
+      <c r="D66" s="51">
+        <f t="shared" si="88"/>
         <v>0.27409640538379865</v>
       </c>
-      <c r="E66" s="52">
-        <f t="shared" si="92"/>
+      <c r="E66" s="51">
+        <f t="shared" si="88"/>
         <v>0.24563181379993293</v>
       </c>
-      <c r="F66" s="52">
-        <f t="shared" si="92"/>
+      <c r="F66" s="51">
+        <f t="shared" si="88"/>
         <v>0.37977291413031922</v>
       </c>
-      <c r="G66" s="52">
-        <f t="shared" si="92"/>
+      <c r="G66" s="51">
+        <f t="shared" si="88"/>
         <v>0.67061433155115679</v>
       </c>
-      <c r="H66" s="52">
-        <f t="shared" si="92"/>
+      <c r="H66" s="51">
+        <f t="shared" si="88"/>
         <v>0.24443812061801617</v>
       </c>
-      <c r="I66" s="52">
-        <f t="shared" si="92"/>
+      <c r="I66" s="51">
+        <f t="shared" si="88"/>
         <v>0.19270707089866201</v>
       </c>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B67" s="25"/>
@@ -5739,21 +5775,21 @@
         <f>I40/I62</f>
         <v>-1812.7873563218391</v>
       </c>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="49"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="49"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5770,18 +5806,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="21"/>
     <col min="6" max="6" width="10.83203125" style="22"/>
@@ -5797,141 +5833,157 @@
     <col min="25" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="60"/>
+      <c r="B2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="60">
+      <c r="V2" s="58">
         <v>43921</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="W2" s="67">
+        <v>44012</v>
+      </c>
+      <c r="X2" s="67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="61" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="25">
@@ -5997,11 +6049,19 @@
       <c r="V3" s="26">
         <v>62429</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-    </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="W3" s="25">
+        <v>65002</v>
+      </c>
+      <c r="X3" s="25">
+        <v>69802</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>U3*1.35</f>
+        <v>70615.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="61" t="s">
         <v>122</v>
       </c>
       <c r="B4" s="25"/>
@@ -6042,11 +6102,19 @@
       <c r="V4" s="26">
         <v>26475</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-    </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="W4" s="25">
+        <v>29862</v>
+      </c>
+      <c r="X4" s="25">
+        <v>33255</v>
+      </c>
+      <c r="Y4" s="5">
+        <f>U4*1.25</f>
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="25">
@@ -6112,11 +6180,19 @@
       <c r="V5" s="26">
         <v>17713</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-    </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="W5" s="25">
+        <v>18552</v>
+      </c>
+      <c r="X5" s="25">
+        <v>21351</v>
+      </c>
+      <c r="Y5" s="5">
+        <f>U5*1.15</f>
+        <v>23258.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="25">
@@ -6182,22 +6258,31 @@
       <c r="V6" s="26">
         <v>1448</v>
       </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-    </row>
-    <row r="7" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W6" s="25">
+        <v>1467</v>
+      </c>
+      <c r="X6" s="25">
+        <v>1039</v>
+      </c>
+      <c r="Y6" s="5">
+        <f>U6*0.4</f>
+        <v>1325.6000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="62"/>
       <c r="F7" s="41"/>
       <c r="J7" s="41"/>
       <c r="N7" s="41"/>
       <c r="R7" s="41"/>
       <c r="V7" s="41"/>
     </row>
-    <row r="8" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="63" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="28">
-        <f t="shared" ref="B8:V8" si="0">SUM(B3:B6)</f>
+        <f t="shared" ref="B8:Y8" si="0">SUM(B3:B6)</f>
         <v>22399</v>
       </c>
       <c r="C8" s="28">
@@ -6280,11 +6365,21 @@
         <f t="shared" si="0"/>
         <v>108065</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-    </row>
-    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="W8" s="28">
+        <f t="shared" si="0"/>
+        <v>114883</v>
+      </c>
+      <c r="X8" s="28">
+        <f t="shared" si="0"/>
+        <v>125447</v>
+      </c>
+      <c r="Y8" s="28">
+        <f t="shared" si="0"/>
+        <v>132600.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="25">
@@ -6350,11 +6445,15 @@
       <c r="V9" s="26">
         <v>55271</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-    </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="W9" s="25">
+        <v>61673</v>
+      </c>
+      <c r="X9" s="25">
+        <v>68800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="29">
@@ -6434,18 +6533,24 @@
         <v>42479</v>
       </c>
       <c r="U10" s="29">
-        <f t="shared" ref="U10:V10" si="3">U8-U9</f>
+        <f t="shared" ref="U10:X10" si="3">U8-U9</f>
         <v>46108</v>
       </c>
       <c r="V10" s="38">
         <f t="shared" si="3"/>
         <v>52794</v>
       </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-    </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="W10" s="29">
+        <f t="shared" si="3"/>
+        <v>53210</v>
+      </c>
+      <c r="X10" s="29">
+        <f t="shared" si="3"/>
+        <v>56647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="61" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="25">
@@ -6511,11 +6616,15 @@
       <c r="V11" s="26">
         <v>7049</v>
       </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-    </row>
-    <row r="12" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="W11" s="25">
+        <v>7756</v>
+      </c>
+      <c r="X11" s="25">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="61" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="25">
@@ -6581,11 +6690,15 @@
       <c r="V12" s="26">
         <v>14158</v>
       </c>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-    </row>
-    <row r="13" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="W12" s="25">
+        <v>16499</v>
+      </c>
+      <c r="X12" s="25">
+        <v>17189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="61" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="29">
@@ -6672,102 +6785,114 @@
         <f t="shared" si="6"/>
         <v>21207</v>
       </c>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-    </row>
-    <row r="14" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="W13" s="29">
+        <f t="shared" ref="W13:X13" si="7">SUM(W11:W12)</f>
+        <v>24255</v>
+      </c>
+      <c r="X13" s="29">
+        <f t="shared" si="7"/>
+        <v>26109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="29">
-        <f t="shared" ref="B14:Q14" si="7">B10-B13</f>
+        <f t="shared" ref="B14:Q14" si="8">B10-B13</f>
         <v>8440</v>
       </c>
       <c r="C14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8826</v>
       </c>
       <c r="D14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9158</v>
       </c>
       <c r="E14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9990</v>
       </c>
       <c r="F14" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12189</v>
       </c>
       <c r="G14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12792</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12668</v>
       </c>
       <c r="I14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12255</v>
       </c>
       <c r="J14" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15273</v>
       </c>
       <c r="K14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16476</v>
       </c>
       <c r="L14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17811</v>
       </c>
       <c r="M14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16662</v>
       </c>
       <c r="N14" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22042</v>
       </c>
       <c r="O14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18229</v>
       </c>
       <c r="P14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18017</v>
       </c>
       <c r="Q14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18077</v>
       </c>
       <c r="R14" s="38">
-        <f t="shared" ref="R14:S14" si="8">R10-R13</f>
+        <f t="shared" ref="R14:S14" si="9">R10-R13</f>
         <v>24245</v>
       </c>
       <c r="S14" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21831</v>
       </c>
       <c r="T14" s="29">
-        <f t="shared" ref="T14:V14" si="9">T10-T13</f>
+        <f t="shared" ref="T14:V14" si="10">T10-T13</f>
         <v>23221</v>
       </c>
       <c r="U14" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23394</v>
       </c>
       <c r="V14" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31587</v>
       </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-    </row>
-    <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="W14" s="29">
+        <f t="shared" ref="W14:X14" si="11">W10-W13</f>
+        <v>28955</v>
+      </c>
+      <c r="X14" s="29">
+        <f t="shared" si="11"/>
+        <v>30538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="25">
@@ -6854,102 +6979,114 @@
         <f>1636+4037-1684-281</f>
         <v>3708</v>
       </c>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-    </row>
-    <row r="16" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="W15" s="25">
+        <f>1749+8607-2005-295</f>
+        <v>8056</v>
+      </c>
+      <c r="X15" s="25">
+        <f>1864+11551-1945+2630</f>
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="29">
-        <f t="shared" ref="B16:R16" si="10">B14+B15</f>
+        <f t="shared" ref="B16:R16" si="12">B14+B15</f>
         <v>8629</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9243</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9148</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9196</v>
       </c>
       <c r="F16" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11818</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13660</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13237</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12925</v>
       </c>
       <c r="J16" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18173</v>
       </c>
       <c r="K16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22224</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>23040</v>
       </c>
       <c r="M16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24745</v>
       </c>
       <c r="N16" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>29719</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22182</v>
       </c>
       <c r="P16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26633</v>
       </c>
       <c r="Q16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15932</v>
       </c>
       <c r="R16" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32668</v>
       </c>
       <c r="S16" s="29">
-        <f t="shared" ref="S16:T16" si="11">S14+S15</f>
+        <f t="shared" ref="S16:T16" si="13">S14+S15</f>
         <v>27909</v>
       </c>
       <c r="T16" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24314</v>
       </c>
       <c r="U16" s="29">
-        <f t="shared" ref="U16:V16" si="12">U14+U15</f>
+        <f t="shared" ref="U16:X16" si="14">U14+U15</f>
         <v>24509</v>
       </c>
       <c r="V16" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>35295</v>
       </c>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-    </row>
-    <row r="17" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="W16" s="29">
+        <f t="shared" si="14"/>
+        <v>37011</v>
+      </c>
+      <c r="X16" s="29">
+        <f t="shared" si="14"/>
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="25">
@@ -7015,193 +7152,209 @@
       <c r="V17" s="26">
         <v>5892</v>
       </c>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-    </row>
-    <row r="18" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="W17" s="25">
+        <v>4557</v>
+      </c>
+      <c r="X17" s="25">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="63" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="28">
-        <f t="shared" ref="B18:Q18" si="13">B16-B17</f>
+        <f t="shared" ref="B18:Q18" si="15">B16-B17</f>
         <v>6930</v>
       </c>
       <c r="C18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7396</v>
       </c>
       <c r="D18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7584</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7198</v>
       </c>
       <c r="F18" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9268</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10880</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10776</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10523</v>
       </c>
       <c r="J18" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14515</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18254</v>
       </c>
       <c r="L18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18047</v>
       </c>
       <c r="M18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21622</v>
       </c>
       <c r="N18" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23973</v>
       </c>
       <c r="O18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18580</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23405</v>
       </c>
       <c r="Q18" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14026</v>
       </c>
       <c r="R18" s="37">
-        <f t="shared" ref="R18:S18" si="14">R16-R17</f>
+        <f t="shared" ref="R18:S18" si="16">R16-R17</f>
         <v>27856</v>
       </c>
       <c r="S18" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24684</v>
       </c>
       <c r="T18" s="28">
-        <f t="shared" ref="T18:V18" si="15">T16-T17</f>
+        <f t="shared" ref="T18:V18" si="17">T16-T17</f>
         <v>20976</v>
       </c>
       <c r="U18" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22372</v>
       </c>
       <c r="V18" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29403</v>
       </c>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-    </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="W18" s="28">
+        <f t="shared" ref="W18:X18" si="18">W16-W17</f>
+        <v>32454</v>
+      </c>
+      <c r="X18" s="28">
+        <f t="shared" si="18"/>
+        <v>38899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="64" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="35">
-        <f t="shared" ref="B19:Q19" si="16">B18/B20</f>
+        <f t="shared" ref="B19:Q19" si="19">B18/B20</f>
         <v>0.73801916932907352</v>
       </c>
       <c r="C19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.79578222509145691</v>
       </c>
       <c r="D19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.80680851063829784</v>
       </c>
       <c r="E19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.77264920566766848</v>
       </c>
       <c r="F19" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.99048840440312069</v>
       </c>
       <c r="G19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1612765503255418</v>
       </c>
       <c r="H19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1350326522013903</v>
       </c>
       <c r="I19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1083842426795871</v>
       </c>
       <c r="J19" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5261276416780569</v>
       </c>
       <c r="K19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9166316673666526</v>
       </c>
       <c r="L19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8923141449093006</v>
       </c>
       <c r="M19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.2975241738391246</v>
       </c>
       <c r="N19" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.5065872020075282</v>
       </c>
       <c r="O19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9686374231828778</v>
       </c>
       <c r="P19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.4497592631358591</v>
       </c>
       <c r="Q19" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.465928093645485</v>
       </c>
       <c r="R19" s="39">
-        <f t="shared" ref="R19:S19" si="17">R18/R20</f>
+        <f t="shared" ref="R19:S19" si="20">R18/R20</f>
         <v>2.9116755513745165</v>
       </c>
       <c r="S19" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.5771559824598036</v>
       </c>
       <c r="T19" s="35">
-        <f t="shared" ref="T19:V19" si="18">T18/T20</f>
+        <f t="shared" ref="T19:V19" si="21">T18/T20</f>
         <v>2.1888761348220807</v>
       </c>
       <c r="U19" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.3296886389669895</v>
       </c>
       <c r="V19" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3.0788481675392672</v>
       </c>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="W19" s="35" t="e">
+        <f t="shared" ref="W19:X19" si="22">W18/W20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" s="35" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="25">
@@ -7270,8 +7423,8 @@
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
     </row>
-    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="33"/>
@@ -7279,63 +7432,63 @@
       <c r="D22" s="33"/>
       <c r="E22" s="31"/>
       <c r="F22" s="40">
-        <f t="shared" ref="F22:T22" si="19">F8/B8-1</f>
+        <f t="shared" ref="F22:T22" si="23">F8/B8-1</f>
         <v>0.42841198267779812</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.5233684749669214</v>
       </c>
       <c r="H22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.51868842596074294</v>
       </c>
       <c r="I22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.44095134851023299</v>
       </c>
       <c r="J22" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.54874199093608378</v>
       </c>
       <c r="K22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.58600207335182541</v>
       </c>
       <c r="L22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.61458849163117768</v>
       </c>
       <c r="M22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.51358745212474921</v>
       </c>
       <c r="N22" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.48385534388117524</v>
       </c>
       <c r="O22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.3015404727414055</v>
       </c>
       <c r="P22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.23593007207483518</v>
       </c>
       <c r="Q22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.2787082781057959</v>
       </c>
       <c r="R22" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.16234631704928737</v>
       </c>
       <c r="S22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.20557855446216489</v>
       </c>
       <c r="T22" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.20647682858738126</v>
       </c>
       <c r="U22" s="33">
@@ -7346,430 +7499,480 @@
         <f>V8/R8-1</f>
         <v>0.2644357339261687</v>
       </c>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
+      <c r="W22" s="33">
+        <f t="shared" ref="W22:Y22" si="24">W8/S8-1</f>
+        <v>0.29342160074757095</v>
+      </c>
+      <c r="X22" s="33">
+        <f t="shared" si="24"/>
+        <v>0.29012917026615659</v>
+      </c>
+      <c r="Y22" s="33">
+        <f t="shared" si="24"/>
+        <v>0.25370058713965604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A23" s="60" t="s">
+        <v>143</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="34">
-        <f t="shared" ref="F23:R24" si="20">F11/B11-1</f>
+        <f t="shared" ref="F23:R24" si="25">F11/B11-1</f>
         <v>0.53242835595776783</v>
       </c>
       <c r="G23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.47720174890693312</v>
       </c>
       <c r="H23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.60479921645445645</v>
       </c>
       <c r="I23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.47552910052910047</v>
       </c>
       <c r="J23" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.55413385826771644</v>
       </c>
       <c r="K23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.54756871035940802</v>
       </c>
       <c r="L23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.46841623436069568</v>
       </c>
       <c r="M23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.34961900493052434</v>
       </c>
       <c r="N23" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.76377454084863827</v>
       </c>
       <c r="O23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.73770491803278682</v>
       </c>
       <c r="P23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.36596009975062338</v>
       </c>
       <c r="Q23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-4.848887412819658E-2</v>
       </c>
       <c r="R23" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-0.23806104129263916</v>
       </c>
       <c r="S23" s="30">
-        <f t="shared" ref="S23:V24" si="21">S11/O11-1</f>
+        <f t="shared" ref="S23:X24" si="26">S11/O11-1</f>
         <v>-0.25817610062893082</v>
       </c>
       <c r="T23" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-0.12946904001217097</v>
       </c>
       <c r="U23" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.17137870855148352</v>
       </c>
       <c r="V23" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.66093308199811496</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
+      <c r="W23" s="30">
+        <f t="shared" si="26"/>
+        <v>0.64391691394658745</v>
+      </c>
+      <c r="X23" s="30">
+        <f t="shared" si="26"/>
+        <v>0.55889549108703251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A24" s="60" t="s">
+        <v>144</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.19083969465648853</v>
       </c>
       <c r="G24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.32111692844677142</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.34315068493150691</v>
       </c>
       <c r="I24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.44964330675618958</v>
       </c>
       <c r="J24" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.60531135531135538</v>
       </c>
       <c r="K24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.54180033968673325</v>
       </c>
       <c r="L24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.53969063403025674</v>
       </c>
       <c r="M24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.27529309596178897</v>
       </c>
       <c r="N24" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.34483742156303476</v>
       </c>
       <c r="O24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.20648714810281521</v>
       </c>
       <c r="P24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.20225215279311115</v>
       </c>
       <c r="Q24" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.28759505163999544</v>
       </c>
       <c r="R24" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.20159066808059389</v>
       </c>
       <c r="S24" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.27594602820330727</v>
       </c>
       <c r="T24" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.24297520661157024</v>
       </c>
       <c r="U24" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.41048920229175856</v>
       </c>
       <c r="V24" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.24949254258229625</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="W24" s="30">
+        <f t="shared" si="26"/>
+        <v>0.31183907132066468</v>
+      </c>
+      <c r="X24" s="30">
+        <f t="shared" si="26"/>
+        <v>0.26987293144208047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A26" s="60" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="30">
-        <f t="shared" ref="B26:Q26" si="22">B10/B8</f>
+        <f t="shared" ref="B26:Q26" si="27">B10/B8</f>
         <v>0.59975891780883073</v>
       </c>
       <c r="C26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.61624482478979048</v>
       </c>
       <c r="D26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.5858464315259081</v>
       </c>
       <c r="E26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.58408068066095065</v>
       </c>
       <c r="F26" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.58099703078606035</v>
       </c>
       <c r="G26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.57314168838082424</v>
       </c>
       <c r="H26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.54045756165197578</v>
       </c>
       <c r="I26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.5386193689585993</v>
       </c>
       <c r="J26" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.51346060703907004</v>
       </c>
       <c r="K26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.50005299791541535</v>
       </c>
       <c r="L26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.48583039411133261</v>
       </c>
       <c r="M26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.47437944330642245</v>
       </c>
       <c r="N26" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.50378087259275373</v>
       </c>
       <c r="O26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.46753987105531047</v>
       </c>
       <c r="P26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.44022582046032632</v>
       </c>
       <c r="Q26" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.41405955522050508</v>
       </c>
       <c r="R26" s="34">
-        <f t="shared" ref="R26:S26" si="23">R10/R8</f>
+        <f t="shared" ref="R26:S26" si="28">R10/R8</f>
         <v>0.46592172234247936</v>
       </c>
       <c r="S26" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.44050393488026479</v>
       </c>
       <c r="T26" s="30">
-        <f t="shared" ref="T26:V26" si="24">T10/T8</f>
+        <f t="shared" ref="T26:V26" si="29">T10/T8</f>
         <v>0.43686494713891977</v>
       </c>
       <c r="U26" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.43593937617593387</v>
       </c>
       <c r="V26" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.48853930504788784</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="W26" s="30">
+        <f t="shared" ref="W26:X26" si="30">W10/W8</f>
+        <v>0.4631668741241089</v>
+      </c>
+      <c r="X26" s="30">
+        <f t="shared" si="30"/>
+        <v>0.45156121708769442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="30">
-        <f t="shared" ref="B27:Q27" si="25">B14/B8</f>
+        <f t="shared" ref="B27:Q27" si="31">B14/B8</f>
         <v>0.37680253582749229</v>
       </c>
       <c r="C27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.37671262111058945</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.34436339023839962</v>
       </c>
       <c r="E27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.328175815511974</v>
       </c>
       <c r="F27" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.38096577590248476</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.35840968311338994</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.31365752203624842</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.27938628488053985</v>
       </c>
       <c r="J27" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.30822166612851148</v>
       </c>
       <c r="K27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.29106455146097587</v>
       </c>
       <c r="L27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.27313295506824109</v>
       </c>
       <c r="M27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.25096397156283889</v>
       </c>
       <c r="N27" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.29977695571754975</v>
       </c>
       <c r="O27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.24742449949100781</v>
       </c>
       <c r="P27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.22354984800545941</v>
       </c>
       <c r="Q27" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.21293111571805504</v>
       </c>
       <c r="R27" s="34">
-        <f t="shared" ref="R27:S27" si="26">R14/R8</f>
+        <f t="shared" ref="R27:S27" si="32">R14/R8</f>
         <v>0.28368337916106007</v>
       </c>
       <c r="S27" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.24578646941601648</v>
       </c>
       <c r="T27" s="30">
-        <f t="shared" ref="T27:V27" si="27">T14/T8</f>
+        <f t="shared" ref="T27:V27" si="33">T14/T8</f>
         <v>0.23881072853675595</v>
       </c>
       <c r="U27" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.22118430134162831</v>
       </c>
       <c r="V27" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.2922963031508814</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="W27" s="30">
+        <f t="shared" ref="W27:X27" si="34">W14/W8</f>
+        <v>0.25203903101416225</v>
+      </c>
+      <c r="X27" s="30">
+        <f t="shared" si="34"/>
+        <v>0.24343348186883704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A28" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="30">
-        <f t="shared" ref="B28:Q28" si="28">B17/B16</f>
+        <f t="shared" ref="B28:Q28" si="35">B17/B16</f>
         <v>0.1968941939969869</v>
       </c>
       <c r="C28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.19982689602942769</v>
       </c>
       <c r="D28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.17096633143856579</v>
       </c>
       <c r="E28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.21726837755545889</v>
       </c>
       <c r="F28" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.21577255034692841</v>
       </c>
       <c r="G28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.20351390922401172</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.18591825942434087</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.18584139264990329</v>
       </c>
       <c r="J28" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.20128762449788148</v>
       </c>
       <c r="K28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.17863570914326854</v>
       </c>
       <c r="L28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.21671006944444443</v>
       </c>
       <c r="M28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.12620731460901191</v>
       </c>
       <c r="N28" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.19334432517917829</v>
       </c>
       <c r="O28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.16238391488594356</v>
       </c>
       <c r="P28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.1212030188112492</v>
       </c>
       <c r="Q28" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.11963344212904846</v>
       </c>
       <c r="R28" s="34">
-        <f t="shared" ref="R28:S28" si="29">R17/R16</f>
+        <f t="shared" ref="R28:S28" si="36">R17/R16</f>
         <v>0.14730011019958369</v>
       </c>
       <c r="S28" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0.11555412232613135</v>
       </c>
       <c r="T28" s="30">
-        <f t="shared" ref="T28:V28" si="30">T17/T16</f>
+        <f t="shared" ref="T28:V28" si="37">T17/T16</f>
         <v>0.13728715966110061</v>
       </c>
       <c r="U28" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>8.7192459912685136E-2</v>
       </c>
       <c r="V28" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.1669358266043349</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="W28" s="30">
+        <f t="shared" ref="W28:X28" si="38">W17/W16</f>
+        <v>0.12312555726675853</v>
+      </c>
+      <c r="X28" s="30">
+        <f t="shared" si="38"/>
+        <v>0.12856758815359112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="65" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="31"/>
@@ -7780,21 +7983,21 @@
       <c r="G30" s="31"/>
       <c r="H30" s="21"/>
       <c r="I30" s="28">
-        <f t="shared" ref="I30" si="31">I31-I32</f>
+        <f t="shared" ref="I30" si="39">I31-I32</f>
         <v>18890</v>
       </c>
       <c r="J30" s="32"/>
       <c r="K30" s="31"/>
       <c r="L30" s="21"/>
       <c r="M30" s="28">
-        <f t="shared" ref="M30:Q30" si="32">M31-M32</f>
+        <f t="shared" ref="M30:Q30" si="40">M31-M32</f>
         <v>17487</v>
       </c>
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>-9792</v>
       </c>
       <c r="R30" s="22"/>
@@ -7809,10 +8012,13 @@
         <v>-3107</v>
       </c>
       <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-    </row>
-    <row r="31" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="X30" s="68">
+        <f>X31-X32</f>
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="25"/>
@@ -7852,10 +8058,13 @@
         <v>223193</v>
       </c>
       <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-    </row>
-    <row r="32" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="X31" s="25">
+        <f>152491+2250+75692+6135+31664</f>
+        <v>268232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="61" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="25"/>
@@ -7895,10 +8104,13 @@
         <v>226300</v>
       </c>
       <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-    </row>
-    <row r="34" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="X32" s="25">
+        <f>118037+127375+14117+0</f>
+        <v>259529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="25"/>
@@ -7933,10 +8145,12 @@
         <v>127718</v>
       </c>
       <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-    </row>
-    <row r="35" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="X34" s="25">
+        <v>137135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="25"/>
@@ -7971,10 +8185,12 @@
         <v>1014945</v>
       </c>
       <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-    </row>
-    <row r="36" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="X35" s="25">
+        <v>1190029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="61" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="25"/>
@@ -8009,60 +8225,70 @@
         <v>501402</v>
       </c>
       <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+      <c r="X36" s="25">
+        <v>543532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A38" s="60" t="s">
         <v>34</v>
       </c>
       <c r="I38" s="29">
-        <f t="shared" ref="I38" si="33">I35-I34-I31</f>
+        <f t="shared" ref="I38" si="41">I35-I34-I31</f>
         <v>231045</v>
       </c>
       <c r="M38" s="29">
-        <f t="shared" ref="M38:Q38" si="34">M35-M34-M31</f>
+        <f t="shared" ref="M38:Q38" si="42">M35-M34-M31</f>
         <v>365014</v>
       </c>
       <c r="Q38" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>497374</v>
       </c>
       <c r="U38" s="29">
-        <f t="shared" ref="U38:V38" si="35">U35-U34-U31</f>
+        <f t="shared" ref="U38:V38" si="43">U35-U34-U31</f>
         <v>616930</v>
       </c>
       <c r="V38" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>664034</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="X38" s="29">
+        <f t="shared" ref="X38" si="44">X35-X34-X31</f>
+        <v>784662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A39" s="60" t="s">
         <v>35</v>
       </c>
       <c r="I39" s="29">
-        <f t="shared" ref="I39" si="36">I35-I36</f>
+        <f t="shared" ref="I39" si="45">I35-I36</f>
         <v>186247</v>
       </c>
       <c r="M39" s="29">
-        <f t="shared" ref="M39:Q39" si="37">M35-M36</f>
+        <f t="shared" ref="M39:Q39" si="46">M35-M36</f>
         <v>277093</v>
       </c>
       <c r="Q39" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>356207</v>
       </c>
       <c r="U39" s="29">
-        <f t="shared" ref="U39:V39" si="38">U35-U36</f>
+        <f t="shared" ref="U39:V39" si="47">U35-U36</f>
         <v>488824</v>
       </c>
       <c r="V39" s="38">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>513543</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="X39" s="29">
+        <f t="shared" ref="X39" si="48">X35-X36</f>
+        <v>646497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="65" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="31"/>
@@ -8073,14 +8299,14 @@
       <c r="G41" s="31"/>
       <c r="H41" s="21"/>
       <c r="I41" s="28">
-        <f t="shared" ref="I41" si="39">SUM(F18:I18)</f>
+        <f t="shared" ref="I41" si="49">SUM(F18:I18)</f>
         <v>41447</v>
       </c>
       <c r="J41" s="32"/>
       <c r="K41" s="31"/>
       <c r="L41" s="21"/>
       <c r="M41" s="28">
-        <f t="shared" ref="M41:V41" si="40">SUM(J18:M18)</f>
+        <f t="shared" ref="M41:X41" si="50">SUM(J18:M18)</f>
         <v>72438</v>
       </c>
       <c r="N41" s="22"/>
@@ -8094,26 +8320,29 @@
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="28">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>95888</v>
       </c>
       <c r="V41" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>97435</v>
       </c>
       <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="X41" s="28">
+        <f t="shared" si="50"/>
+        <v>123128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A42" s="60" t="s">
         <v>28</v>
       </c>
       <c r="I42" s="36">
-        <f t="shared" ref="I42" si="41">I41/I39</f>
+        <f t="shared" ref="I42" si="51">I41/I39</f>
         <v>0.22253781268960038</v>
       </c>
       <c r="M42" s="36">
-        <f t="shared" ref="M42" si="42">M41/M39</f>
+        <f t="shared" ref="M42" si="52">M41/M39</f>
         <v>0.26142125567950109</v>
       </c>
       <c r="Q42" s="36">
@@ -8121,91 +8350,107 @@
         <v>0.22454359403380619</v>
       </c>
       <c r="U42" s="36">
-        <f t="shared" ref="U42:V42" si="43">U41/U39</f>
+        <f t="shared" ref="U42:V42" si="53">U41/U39</f>
         <v>0.19616058131351979</v>
       </c>
       <c r="V42" s="34">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>0.18973094755453779</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="X42" s="36">
+        <f t="shared" ref="X42" si="54">X41/X39</f>
+        <v>0.19045409336779598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A43" s="60" t="s">
         <v>29</v>
       </c>
       <c r="I43" s="36">
-        <f t="shared" ref="I43" si="44">I41/I35</f>
+        <f t="shared" ref="I43" si="55">I41/I35</f>
         <v>0.10469084286648868</v>
       </c>
       <c r="M43" s="36">
-        <f t="shared" ref="M43:Q43" si="45">M41/M35</f>
+        <f t="shared" ref="M43:Q43" si="56">M41/M35</f>
         <v>0.13059610003749964</v>
       </c>
       <c r="Q43" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.11054827710598587</v>
       </c>
       <c r="U43" s="36">
-        <f t="shared" ref="U43:V43" si="46">U41/U35</f>
+        <f t="shared" ref="U43:V43" si="57">U41/U35</f>
         <v>0.10051300543194554</v>
       </c>
       <c r="V43" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>9.6000275877017968E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="X43" s="36">
+        <f t="shared" ref="X43" si="58">X41/X35</f>
+        <v>0.10346638611327959</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A44" s="60" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="36">
-        <f t="shared" ref="I44" si="47">I41/(I39-I34)</f>
+        <f t="shared" ref="I44" si="59">I41/(I39-I34)</f>
         <v>0.27671918814260915</v>
       </c>
       <c r="M44" s="36">
-        <f t="shared" ref="M44:Q44" si="48">M41/(M39-M34)</f>
+        <f t="shared" ref="M44:Q44" si="60">M41/(M39-M34)</f>
         <v>0.30586884096830175</v>
       </c>
       <c r="Q44" s="36">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.26700761457752614</v>
       </c>
       <c r="U44" s="36">
-        <f t="shared" ref="U44:V44" si="49">U41/(U39-U34)</f>
+        <f t="shared" ref="U44:V44" si="61">U41/(U39-U34)</f>
         <v>0.26638219377493305</v>
       </c>
       <c r="V44" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0.25253677185252382</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="X44" s="36">
+        <f t="shared" ref="X44" si="62">X41/(X39-X34)</f>
+        <v>0.24172985028329558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A45" s="60" t="s">
         <v>31</v>
       </c>
       <c r="I45" s="36">
-        <f t="shared" ref="I45" si="50">I41/I38</f>
+        <f t="shared" ref="I45" si="63">I41/I38</f>
         <v>0.17938929645740007</v>
       </c>
       <c r="M45" s="36">
-        <f t="shared" ref="M45:Q45" si="51">M41/M38</f>
+        <f t="shared" ref="M45:Q45" si="64">M41/M38</f>
         <v>0.19845266208967327</v>
       </c>
       <c r="Q45" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v>0.16081258771065637</v>
       </c>
       <c r="U45" s="36">
-        <f t="shared" ref="U45:V45" si="52">U41/U38</f>
+        <f t="shared" ref="U45:V45" si="65">U41/U38</f>
         <v>0.15542768223299239</v>
       </c>
       <c r="V45" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>0.14673194444862764</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="X45" s="36">
+        <f t="shared" ref="X45" si="66">X41/X38</f>
+        <v>0.156918520331047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A47" s="61" t="s">
         <v>123</v>
       </c>
       <c r="F47" s="34">
@@ -8217,27 +8462,27 @@
         <v>0.39353158237464725</v>
       </c>
       <c r="H47" s="36">
-        <f t="shared" ref="H47:U50" si="53">H3/D3-1</f>
+        <f t="shared" ref="H47:U50" si="67">H3/D3-1</f>
         <v>0.36151262958096075</v>
       </c>
       <c r="I47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.26543263395179473</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.40634513699727615</v>
       </c>
       <c r="K47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.43317757009345792</v>
       </c>
       <c r="L47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.50577301161751564</v>
       </c>
       <c r="M47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.36846973382206838</v>
       </c>
       <c r="N47" s="34">
@@ -8245,15 +8490,15 @@
         <v>0.33522274125555418</v>
       </c>
       <c r="O47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.14305510270622768</v>
       </c>
       <c r="P47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>4.5698414205678439E-2</v>
       </c>
       <c r="Q47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>9.2722857786567303E-2</v>
       </c>
       <c r="R47" s="34">
@@ -8261,24 +8506,36 @@
         <v>4.4734091345435933E-2</v>
       </c>
       <c r="S47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.14288430911122196</v>
       </c>
       <c r="T47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.14937910054711789</v>
       </c>
       <c r="U47" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.19832306247279563</v>
       </c>
       <c r="V47" s="34">
         <f>V3/R3-1</f>
         <v>0.27473761587781276</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="W47" s="36">
+        <f t="shared" ref="W47:Y50" si="68">W3/S3-1</f>
+        <v>0.35195507487520805</v>
+      </c>
+      <c r="X47" s="36">
+        <f t="shared" si="68"/>
+        <v>0.37869600426632966</v>
+      </c>
+      <c r="Y47" s="36">
+        <f t="shared" si="68"/>
+        <v>0.35000000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A48" s="61" t="s">
         <v>124</v>
       </c>
       <c r="F48" s="34"/>
@@ -8298,24 +8555,36 @@
         <v>0.43518640495323413</v>
       </c>
       <c r="S48" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.37333493339733592</v>
       </c>
       <c r="T48" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.35875691870207693</v>
       </c>
       <c r="U48" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.38537759874056587</v>
       </c>
       <c r="V48" s="34">
         <f>V4/R4-1</f>
         <v>0.21506264628941207</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="W48" s="36">
+        <f t="shared" si="68"/>
+        <v>0.30470115344285209</v>
+      </c>
+      <c r="X48" s="36">
+        <f t="shared" si="68"/>
+        <v>0.2428058898273413</v>
+      </c>
+      <c r="Y48" s="36">
+        <f t="shared" si="68"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="61" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="30"/>
@@ -8331,27 +8600,27 @@
         <v>0.60373189295359686</v>
       </c>
       <c r="H49" s="36">
-        <f t="shared" ref="H49:Q49" si="54">H5/D5-1</f>
+        <f t="shared" ref="H49:Q49" si="69">H5/D5-1</f>
         <v>0.50850546780072903</v>
       </c>
       <c r="I49" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.44566544566544564</v>
       </c>
       <c r="J49" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.46522016592214421</v>
       </c>
       <c r="K49" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.55358236374770353</v>
       </c>
       <c r="L49" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.48234662370788017</v>
       </c>
       <c r="M49" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.49143339768339778</v>
       </c>
       <c r="N49" s="34">
@@ -8359,15 +8628,15 @@
         <v>0.33522274125555418</v>
       </c>
       <c r="O49" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.39042175798186829</v>
       </c>
       <c r="P49" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.47138199601521458</v>
       </c>
       <c r="Q49" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v>0.37796294798155494</v>
       </c>
       <c r="R49" s="34">
@@ -8375,26 +8644,36 @@
         <v>0.2514734774066798</v>
       </c>
       <c r="S49" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.16293408929836994</v>
       </c>
       <c r="T49" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.13042407829137681</v>
       </c>
       <c r="U49" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.18740092761110794</v>
       </c>
       <c r="V49" s="34">
         <f>V5/R5-1</f>
         <v>0.32413844658742619</v>
       </c>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-    </row>
-    <row r="50" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+      <c r="W49" s="36">
+        <f t="shared" si="68"/>
+        <v>0.13059906149064537</v>
+      </c>
+      <c r="X49" s="36">
+        <f t="shared" si="68"/>
+        <v>0.16252858542959814</v>
+      </c>
+      <c r="Y49" s="36">
+        <f t="shared" si="68"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="30"/>
@@ -8410,31 +8689,31 @@
         <v>2.7489224137931036</v>
       </c>
       <c r="H50" s="36">
-        <f t="shared" ref="H50:Q50" si="55">H6/D6-1</f>
+        <f t="shared" ref="H50:Q50" si="70">H6/D6-1</f>
         <v>3.4761045987376011</v>
       </c>
       <c r="I50" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>2.8932926829268291</v>
       </c>
       <c r="J50" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>2.2429184549356225</v>
       </c>
       <c r="K50" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>1.7749353262431735</v>
       </c>
       <c r="L50" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>1.4262691377921031</v>
       </c>
       <c r="M50" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>1.2057948316366485</v>
       </c>
       <c r="N50" s="34">
-        <f t="shared" ref="N50" si="56">N5/J5-1</f>
+        <f t="shared" ref="N50" si="71">N5/J5-1</f>
         <v>0.55182926829268286</v>
       </c>
       <c r="O50" s="36">
@@ -8442,11 +8721,11 @@
         <v>-0.91402527449761761</v>
       </c>
       <c r="P50" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>-0.94968449020259049</v>
       </c>
       <c r="Q50" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>-0.81432831581936949</v>
       </c>
       <c r="R50" s="34">
@@ -8454,26 +8733,36 @@
         <v>0.69871794871794868</v>
       </c>
       <c r="S50" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.73975903614457827</v>
       </c>
       <c r="T50" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>1.447194719471947</v>
       </c>
       <c r="U50" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0.26730401529636705</v>
       </c>
       <c r="V50" s="34">
         <f>V6/R6-1</f>
         <v>9.2830188679245307E-2</v>
       </c>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-    </row>
-    <row r="52" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+      <c r="W50" s="36">
+        <f t="shared" si="68"/>
+        <v>1.5927977839335083E-2</v>
+      </c>
+      <c r="X50" s="36">
+        <f t="shared" si="68"/>
+        <v>-0.29939312204989887</v>
+      </c>
+      <c r="Y50" s="36">
+        <f t="shared" si="68"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="61" t="s">
         <v>101</v>
       </c>
       <c r="B52" s="25"/>
@@ -8531,11 +8820,15 @@
       <c r="V52" s="26">
         <v>1202.5</v>
       </c>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-    </row>
-    <row r="53" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="W52" s="25">
+        <v>1206.0999999999999</v>
+      </c>
+      <c r="X52" s="25">
+        <v>1212.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B53" s="25"/>
@@ -8590,12 +8883,18 @@
       <c r="U53" s="25">
         <v>647</v>
       </c>
-      <c r="V53" s="26"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-    </row>
-    <row r="54" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="V53" s="26">
+        <v>693.5</v>
+      </c>
+      <c r="W53" s="25">
+        <v>647.6</v>
+      </c>
+      <c r="X53" s="25">
+        <v>617.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="61" t="s">
         <v>103</v>
       </c>
       <c r="B54" s="25"/>
@@ -8653,10 +8952,15 @@
       <c r="V54" s="26">
         <v>197.4</v>
       </c>
-      <c r="W54" s="25"/>
-      <c r="X54" s="25"/>
-    </row>
-    <row r="55" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W54" s="25">
+        <v>203.4</v>
+      </c>
+      <c r="X54" s="25">
+        <v>213.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="66"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -8681,7 +8985,8 @@
       <c r="W55" s="23"/>
       <c r="X55" s="23"/>
     </row>
-    <row r="56" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="66"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -8706,7 +9011,8 @@
       <c r="W56" s="23"/>
       <c r="X56" s="23"/>
     </row>
-    <row r="57" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="66"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -8731,7 +9037,8 @@
       <c r="W57" s="23"/>
       <c r="X57" s="23"/>
     </row>
-    <row r="58" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="66"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -8756,8 +9063,8 @@
       <c r="W58" s="23"/>
       <c r="X58" s="23"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A59" s="20"/>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A59" s="66"/>
     </row>
   </sheetData>
   <hyperlinks>
